--- a/Spreadsheets/Capability Matrix v2.xlsx
+++ b/Spreadsheets/Capability Matrix v2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="680" windowWidth="28800" windowHeight="16240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="6" r:id="rId1"/>
     <sheet name="Settings" sheetId="2" r:id="rId2"/>
     <sheet name="Survey Sheet" sheetId="5" r:id="rId3"/>
     <sheet name="Input and results" sheetId="1" r:id="rId4"/>
-    <sheet name="Skill Heatmap" sheetId="10" state="hidden" r:id="rId5"/>
-    <sheet name="Planning and Stabilizing Teams" sheetId="9" r:id="rId6"/>
+    <sheet name="Planning and Stabilizing Teams" sheetId="9" r:id="rId5"/>
+    <sheet name="Calculations" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Skills_Header">Settings!#REF!</definedName>
@@ -746,21 +746,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,9 +753,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,6 +770,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -12532,28 +12532,28 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="2:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="P2" s="1" t="s">
@@ -12655,7 +12655,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="B5:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -12844,14 +12844,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -13324,11 +13324,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="15" style="43" customWidth="1"/>
-    <col min="4" max="4" width="17" style="43" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="43" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="15" style="38" customWidth="1"/>
+    <col min="4" max="4" width="17" style="38" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" style="38" customWidth="1"/>
     <col min="7" max="7" width="31" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.5" customWidth="1"/>
     <col min="9" max="9" width="32.83203125" customWidth="1"/>
@@ -13336,134 +13336,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:19" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="50" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-    </row>
-    <row r="3" spans="1:19" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+    </row>
+    <row r="3" spans="1:19" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="45" t="s">
         <v>79</v>
       </c>
       <c r="F3"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="52" t="str">
+      <c r="H3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B6),"",Settings!$B6)</f>
         <v>Person 1</v>
       </c>
-      <c r="I3" s="52" t="str">
+      <c r="I3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B7),"",Settings!$B7)</f>
         <v>Person 2</v>
       </c>
-      <c r="J3" s="52" t="str">
+      <c r="J3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B8),"",Settings!$B8)</f>
         <v>Team 1</v>
       </c>
-      <c r="K3" s="52" t="str">
+      <c r="K3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B9),"",Settings!$B9)</f>
         <v/>
       </c>
-      <c r="L3" s="52" t="str">
+      <c r="L3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B10),"",Settings!$B10)</f>
         <v/>
       </c>
-      <c r="M3" s="52" t="str">
+      <c r="M3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B11),"",Settings!$B11)</f>
         <v/>
       </c>
-      <c r="N3" s="52" t="str">
+      <c r="N3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B12),"",Settings!$B12)</f>
         <v/>
       </c>
-      <c r="O3" s="52" t="str">
+      <c r="O3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B13),"",Settings!$B13)</f>
         <v/>
       </c>
-      <c r="P3" s="52" t="str">
+      <c r="P3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B14),"",Settings!$B14)</f>
         <v/>
       </c>
-      <c r="Q3" s="52" t="str">
+      <c r="Q3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B15),"",Settings!$B15)</f>
         <v/>
       </c>
-      <c r="R3" s="52" t="str">
+      <c r="R3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B16),"",Settings!$B16)</f>
         <v/>
       </c>
-      <c r="S3" s="52" t="str">
+      <c r="S3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B17),"",Settings!$B17)</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="str">
+      <c r="A4" s="41" t="str">
         <f>G4</f>
         <v>CSS</v>
       </c>
       <c r="B4" s="19">
-        <f>'Skill Heatmap'!A2</f>
+        <f>Calculations!A2</f>
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <f>'Skill Heatmap'!B2</f>
+        <f>Calculations!B2</f>
         <v>1</v>
       </c>
       <c r="D4" s="19">
-        <f>'Skill Heatmap'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="45">
-        <f>'Skill Heatmap'!R2</f>
+        <f>Calculations!C2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="40">
+        <f>Calculations!R2</f>
         <v>2</v>
       </c>
       <c r="F4"/>
-      <c r="G4" s="46" t="str">
+      <c r="G4" s="41" t="str">
         <f>IF(ISBLANK(Settings!D6),"",Settings!D6)</f>
         <v>CSS</v>
       </c>
@@ -13487,28 +13487,28 @@
       <c r="S4" s="16"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="str">
+      <c r="A5" s="41" t="str">
         <f t="shared" ref="A5:A20" si="0">G5</f>
         <v>Javascript</v>
       </c>
       <c r="B5" s="19">
-        <f>'Skill Heatmap'!A3</f>
+        <f>Calculations!A3</f>
         <v>2</v>
       </c>
       <c r="C5" s="19">
-        <f>'Skill Heatmap'!B3</f>
+        <f>Calculations!B3</f>
         <v>0</v>
       </c>
       <c r="D5" s="19">
-        <f>'Skill Heatmap'!C3</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="45">
-        <f>'Skill Heatmap'!R3</f>
+        <f>Calculations!C3</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <f>Calculations!R3</f>
         <v>7</v>
       </c>
       <c r="F5"/>
-      <c r="G5" s="46" t="str">
+      <c r="G5" s="41" t="str">
         <f>IF(ISBLANK(Settings!D7),"",Settings!D7)</f>
         <v>Javascript</v>
       </c>
@@ -13532,28 +13532,28 @@
       <c r="S5" s="16"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="str">
+      <c r="A6" s="41" t="str">
         <f t="shared" si="0"/>
         <v>DB Backup/Restore</v>
       </c>
       <c r="B6" s="19">
-        <f>'Skill Heatmap'!A4</f>
+        <f>Calculations!A4</f>
         <v>1</v>
       </c>
       <c r="C6" s="19">
-        <f>'Skill Heatmap'!B4</f>
+        <f>Calculations!B4</f>
         <v>1</v>
       </c>
       <c r="D6" s="19">
-        <f>'Skill Heatmap'!C4</f>
+        <f>Calculations!C4</f>
         <v>1</v>
       </c>
-      <c r="E6" s="45">
-        <f>'Skill Heatmap'!R4</f>
+      <c r="E6" s="40">
+        <f>Calculations!R4</f>
         <v>6</v>
       </c>
       <c r="F6"/>
-      <c r="G6" s="46" t="str">
+      <c r="G6" s="41" t="str">
         <f>IF(ISBLANK(Settings!D8),"",Settings!D8)</f>
         <v>DB Backup/Restore</v>
       </c>
@@ -13577,28 +13577,28 @@
       <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="str">
+      <c r="A7" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B7" s="19" t="str">
-        <f>'Skill Heatmap'!A5</f>
+        <f>Calculations!A5</f>
         <v/>
       </c>
       <c r="C7" s="19" t="str">
-        <f>'Skill Heatmap'!B5</f>
+        <f>Calculations!B5</f>
         <v/>
       </c>
       <c r="D7" s="19" t="str">
-        <f>'Skill Heatmap'!C5</f>
-        <v/>
-      </c>
-      <c r="E7" s="45">
-        <f>'Skill Heatmap'!R5</f>
-        <v>0</v>
+        <f>Calculations!C5</f>
+        <v/>
+      </c>
+      <c r="E7" s="40" t="str">
+        <f>Calculations!R5</f>
+        <v/>
       </c>
       <c r="F7"/>
-      <c r="G7" s="46" t="str">
+      <c r="G7" s="41" t="str">
         <f>IF(ISBLANK(Settings!D9),"",Settings!D9)</f>
         <v/>
       </c>
@@ -13616,28 +13616,28 @@
       <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="str">
+      <c r="A8" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B8" s="19" t="str">
-        <f>'Skill Heatmap'!A6</f>
+        <f>Calculations!A6</f>
         <v/>
       </c>
       <c r="C8" s="19" t="str">
-        <f>'Skill Heatmap'!B6</f>
+        <f>Calculations!B6</f>
         <v/>
       </c>
       <c r="D8" s="19" t="str">
-        <f>'Skill Heatmap'!C6</f>
-        <v/>
-      </c>
-      <c r="E8" s="45">
-        <f>'Skill Heatmap'!R6</f>
-        <v>0</v>
+        <f>Calculations!C6</f>
+        <v/>
+      </c>
+      <c r="E8" s="40" t="str">
+        <f>Calculations!R6</f>
+        <v/>
       </c>
       <c r="F8"/>
-      <c r="G8" s="46" t="str">
+      <c r="G8" s="41" t="str">
         <f>IF(ISBLANK(Settings!D10),"",Settings!D10)</f>
         <v/>
       </c>
@@ -13655,28 +13655,28 @@
       <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="str">
+      <c r="A9" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B9" s="19" t="str">
-        <f>'Skill Heatmap'!A7</f>
+        <f>Calculations!A7</f>
         <v/>
       </c>
       <c r="C9" s="19" t="str">
-        <f>'Skill Heatmap'!B7</f>
+        <f>Calculations!B7</f>
         <v/>
       </c>
       <c r="D9" s="19" t="str">
-        <f>'Skill Heatmap'!C7</f>
-        <v/>
-      </c>
-      <c r="E9" s="45">
-        <f>'Skill Heatmap'!R7</f>
-        <v>0</v>
+        <f>Calculations!C7</f>
+        <v/>
+      </c>
+      <c r="E9" s="40" t="str">
+        <f>Calculations!R7</f>
+        <v/>
       </c>
       <c r="F9"/>
-      <c r="G9" s="46" t="str">
+      <c r="G9" s="41" t="str">
         <f>IF(ISBLANK(Settings!D11),"",Settings!D11)</f>
         <v/>
       </c>
@@ -13694,28 +13694,28 @@
       <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="str">
+      <c r="A10" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B10" s="19" t="str">
-        <f>'Skill Heatmap'!A8</f>
+        <f>Calculations!A8</f>
         <v/>
       </c>
       <c r="C10" s="19" t="str">
-        <f>'Skill Heatmap'!B8</f>
+        <f>Calculations!B8</f>
         <v/>
       </c>
       <c r="D10" s="19" t="str">
-        <f>'Skill Heatmap'!C8</f>
-        <v/>
-      </c>
-      <c r="E10" s="45">
-        <f>'Skill Heatmap'!R8</f>
-        <v>0</v>
+        <f>Calculations!C8</f>
+        <v/>
+      </c>
+      <c r="E10" s="40" t="str">
+        <f>Calculations!R8</f>
+        <v/>
       </c>
       <c r="F10"/>
-      <c r="G10" s="46" t="str">
+      <c r="G10" s="41" t="str">
         <f>IF(ISBLANK(Settings!D12),"",Settings!D12)</f>
         <v/>
       </c>
@@ -13733,28 +13733,28 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="str">
+      <c r="A11" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B11" s="19" t="str">
-        <f>'Skill Heatmap'!A9</f>
+        <f>Calculations!A9</f>
         <v/>
       </c>
       <c r="C11" s="19" t="str">
-        <f>'Skill Heatmap'!B9</f>
+        <f>Calculations!B9</f>
         <v/>
       </c>
       <c r="D11" s="19" t="str">
-        <f>'Skill Heatmap'!C9</f>
-        <v/>
-      </c>
-      <c r="E11" s="45">
-        <f>'Skill Heatmap'!R9</f>
-        <v>0</v>
+        <f>Calculations!C9</f>
+        <v/>
+      </c>
+      <c r="E11" s="40" t="str">
+        <f>Calculations!R9</f>
+        <v/>
       </c>
       <c r="F11"/>
-      <c r="G11" s="46" t="str">
+      <c r="G11" s="41" t="str">
         <f>IF(ISBLANK(Settings!D13),"",Settings!D13)</f>
         <v/>
       </c>
@@ -13772,28 +13772,28 @@
       <c r="S11" s="16"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="str">
+      <c r="A12" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B12" s="19" t="str">
-        <f>'Skill Heatmap'!A10</f>
+        <f>Calculations!A10</f>
         <v/>
       </c>
       <c r="C12" s="19" t="str">
-        <f>'Skill Heatmap'!B10</f>
+        <f>Calculations!B10</f>
         <v/>
       </c>
       <c r="D12" s="19" t="str">
-        <f>'Skill Heatmap'!C10</f>
-        <v/>
-      </c>
-      <c r="E12" s="45">
-        <f>'Skill Heatmap'!R10</f>
-        <v>0</v>
+        <f>Calculations!C10</f>
+        <v/>
+      </c>
+      <c r="E12" s="40" t="str">
+        <f>Calculations!R10</f>
+        <v/>
       </c>
       <c r="F12"/>
-      <c r="G12" s="46" t="str">
+      <c r="G12" s="41" t="str">
         <f>IF(ISBLANK(Settings!D14),"",Settings!D14)</f>
         <v/>
       </c>
@@ -13811,28 +13811,28 @@
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="str">
+      <c r="A13" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B13" s="19" t="str">
-        <f>'Skill Heatmap'!A11</f>
+        <f>Calculations!A11</f>
         <v/>
       </c>
       <c r="C13" s="19" t="str">
-        <f>'Skill Heatmap'!B11</f>
+        <f>Calculations!B11</f>
         <v/>
       </c>
       <c r="D13" s="19" t="str">
-        <f>'Skill Heatmap'!C11</f>
-        <v/>
-      </c>
-      <c r="E13" s="45">
-        <f>'Skill Heatmap'!R11</f>
-        <v>0</v>
+        <f>Calculations!C11</f>
+        <v/>
+      </c>
+      <c r="E13" s="40" t="str">
+        <f>Calculations!R11</f>
+        <v/>
       </c>
       <c r="F13"/>
-      <c r="G13" s="46" t="str">
+      <c r="G13" s="41" t="str">
         <f>IF(ISBLANK(Settings!D15),"",Settings!D15)</f>
         <v/>
       </c>
@@ -13850,28 +13850,28 @@
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="str">
+      <c r="A14" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B14" s="19" t="str">
-        <f>'Skill Heatmap'!A12</f>
+        <f>Calculations!A12</f>
         <v/>
       </c>
       <c r="C14" s="19" t="str">
-        <f>'Skill Heatmap'!B12</f>
+        <f>Calculations!B12</f>
         <v/>
       </c>
       <c r="D14" s="19" t="str">
-        <f>'Skill Heatmap'!C12</f>
-        <v/>
-      </c>
-      <c r="E14" s="45">
-        <f>'Skill Heatmap'!R12</f>
-        <v>0</v>
+        <f>Calculations!C12</f>
+        <v/>
+      </c>
+      <c r="E14" s="40" t="str">
+        <f>Calculations!R12</f>
+        <v/>
       </c>
       <c r="F14"/>
-      <c r="G14" s="46" t="str">
+      <c r="G14" s="41" t="str">
         <f>IF(ISBLANK(Settings!D16),"",Settings!D16)</f>
         <v/>
       </c>
@@ -13889,28 +13889,28 @@
       <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="str">
+      <c r="A15" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B15" s="19" t="str">
-        <f>'Skill Heatmap'!A13</f>
+        <f>Calculations!A13</f>
         <v/>
       </c>
       <c r="C15" s="19" t="str">
-        <f>'Skill Heatmap'!B13</f>
+        <f>Calculations!B13</f>
         <v/>
       </c>
       <c r="D15" s="19" t="str">
-        <f>'Skill Heatmap'!C13</f>
-        <v/>
-      </c>
-      <c r="E15" s="45">
-        <f>'Skill Heatmap'!R13</f>
-        <v>0</v>
+        <f>Calculations!C13</f>
+        <v/>
+      </c>
+      <c r="E15" s="40" t="str">
+        <f>Calculations!R13</f>
+        <v/>
       </c>
       <c r="F15"/>
-      <c r="G15" s="46" t="str">
+      <c r="G15" s="41" t="str">
         <f>IF(ISBLANK(Settings!D17),"",Settings!D17)</f>
         <v/>
       </c>
@@ -13928,28 +13928,28 @@
       <c r="S15" s="16"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="str">
+      <c r="A16" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B16" s="19" t="str">
-        <f>'Skill Heatmap'!A14</f>
+        <f>Calculations!A14</f>
         <v/>
       </c>
       <c r="C16" s="19" t="str">
-        <f>'Skill Heatmap'!B14</f>
+        <f>Calculations!B14</f>
         <v/>
       </c>
       <c r="D16" s="19" t="str">
-        <f>'Skill Heatmap'!C14</f>
-        <v/>
-      </c>
-      <c r="E16" s="45">
-        <f>'Skill Heatmap'!R14</f>
-        <v>0</v>
+        <f>Calculations!C14</f>
+        <v/>
+      </c>
+      <c r="E16" s="40" t="str">
+        <f>Calculations!R14</f>
+        <v/>
       </c>
       <c r="F16"/>
-      <c r="G16" s="46" t="str">
+      <c r="G16" s="41" t="str">
         <f>IF(ISBLANK(Settings!D18),"",Settings!D18)</f>
         <v/>
       </c>
@@ -13967,28 +13967,28 @@
       <c r="S16" s="16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="str">
+      <c r="A17" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B17" s="19" t="str">
-        <f>'Skill Heatmap'!A15</f>
+        <f>Calculations!A15</f>
         <v/>
       </c>
       <c r="C17" s="19" t="str">
-        <f>'Skill Heatmap'!B15</f>
+        <f>Calculations!B15</f>
         <v/>
       </c>
       <c r="D17" s="19" t="str">
-        <f>'Skill Heatmap'!C15</f>
-        <v/>
-      </c>
-      <c r="E17" s="45">
-        <f>'Skill Heatmap'!R15</f>
-        <v>0</v>
+        <f>Calculations!C15</f>
+        <v/>
+      </c>
+      <c r="E17" s="40" t="str">
+        <f>Calculations!R15</f>
+        <v/>
       </c>
       <c r="F17"/>
-      <c r="G17" s="46" t="str">
+      <c r="G17" s="41" t="str">
         <f>IF(ISBLANK(Settings!D19),"",Settings!D19)</f>
         <v/>
       </c>
@@ -14006,28 +14006,28 @@
       <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="str">
+      <c r="A18" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B18" s="19" t="str">
-        <f>'Skill Heatmap'!A16</f>
+        <f>Calculations!A16</f>
         <v/>
       </c>
       <c r="C18" s="19" t="str">
-        <f>'Skill Heatmap'!B16</f>
+        <f>Calculations!B16</f>
         <v/>
       </c>
       <c r="D18" s="19" t="str">
-        <f>'Skill Heatmap'!C16</f>
-        <v/>
-      </c>
-      <c r="E18" s="45">
-        <f>'Skill Heatmap'!R16</f>
-        <v>0</v>
+        <f>Calculations!C16</f>
+        <v/>
+      </c>
+      <c r="E18" s="40" t="str">
+        <f>Calculations!R16</f>
+        <v/>
       </c>
       <c r="F18"/>
-      <c r="G18" s="46" t="str">
+      <c r="G18" s="41" t="str">
         <f>IF(ISBLANK(Settings!D20),"",Settings!D20)</f>
         <v/>
       </c>
@@ -14045,28 +14045,28 @@
       <c r="S18" s="16"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="str">
+      <c r="A19" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B19" s="19" t="str">
-        <f>'Skill Heatmap'!A17</f>
+        <f>Calculations!A17</f>
         <v/>
       </c>
       <c r="C19" s="19" t="str">
-        <f>'Skill Heatmap'!B17</f>
+        <f>Calculations!B17</f>
         <v/>
       </c>
       <c r="D19" s="19" t="str">
-        <f>'Skill Heatmap'!C17</f>
-        <v/>
-      </c>
-      <c r="E19" s="45">
-        <f>'Skill Heatmap'!R17</f>
-        <v>0</v>
+        <f>Calculations!C17</f>
+        <v/>
+      </c>
+      <c r="E19" s="40" t="str">
+        <f>Calculations!R17</f>
+        <v/>
       </c>
       <c r="F19"/>
-      <c r="G19" s="46" t="str">
+      <c r="G19" s="41" t="str">
         <f>IF(ISBLANK(Settings!D21),"",Settings!D21)</f>
         <v/>
       </c>
@@ -14084,28 +14084,28 @@
       <c r="S19" s="16"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="str">
+      <c r="A20" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B20" s="19" t="str">
-        <f>'Skill Heatmap'!A18</f>
+        <f>Calculations!A18</f>
         <v/>
       </c>
       <c r="C20" s="19" t="str">
-        <f>'Skill Heatmap'!B18</f>
+        <f>Calculations!B18</f>
         <v/>
       </c>
       <c r="D20" s="19" t="str">
-        <f>'Skill Heatmap'!C18</f>
-        <v/>
-      </c>
-      <c r="E20" s="45">
-        <f>'Skill Heatmap'!R18</f>
-        <v>0</v>
+        <f>Calculations!C18</f>
+        <v/>
+      </c>
+      <c r="E20" s="40" t="str">
+        <f>Calculations!R18</f>
+        <v/>
       </c>
       <c r="F20"/>
-      <c r="G20" s="46" t="str">
+      <c r="G20" s="41" t="str">
         <f>IF(ISBLANK(Settings!D22),"",Settings!D22)</f>
         <v/>
       </c>
@@ -14170,11 +14170,11 @@
       <c r="G30"/>
     </row>
     <row r="31" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14262,17 +14262,456 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="21">
+        <v>0</v>
+      </c>
+      <c r="C40" s="21">
+        <v>1</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="21">
+        <v>0</v>
+      </c>
+      <c r="B41" s="28">
+        <v>9</v>
+      </c>
+      <c r="C41" s="29">
+        <v>7</v>
+      </c>
+      <c r="D41" s="30">
+        <v>3</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
+        <v>1</v>
+      </c>
+      <c r="B42" s="31">
+        <v>8</v>
+      </c>
+      <c r="C42" s="32">
+        <v>5</v>
+      </c>
+      <c r="D42" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="34">
+        <v>6</v>
+      </c>
+      <c r="C43" s="35">
+        <v>4</v>
+      </c>
+      <c r="D43" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:I5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B7:D9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:I9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="38" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="18" width="13" customWidth="1"/>
@@ -14342,16 +14781,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="43">
-        <f>IF($E2&lt;&gt;"",COUNTIF($F2:$Q2, "&gt;= 3"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="43">
-        <f>IF($E2&lt;&gt;"",COUNTIF($F2:$Q2, "= 2"),"")</f>
+      <c r="A2" s="38">
+        <f t="shared" ref="A2:A18" si="0">IF($E2&lt;&gt;"",COUNTIF($F2:$Q2, "&gt;= 3"),"")</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="38">
+        <f t="shared" ref="B2:B18" si="1">IF($E2&lt;&gt;"",COUNTIF($F2:$Q2, "= 2"),"")</f>
         <v>1</v>
       </c>
-      <c r="C2" s="43">
-        <f>IF($E2&lt;&gt;"",COUNTIF($F2:$Q2, "= 1"),"")</f>
+      <c r="C2" s="38">
+        <f t="shared" ref="C2:C18" si="2">IF($E2&lt;&gt;"",COUNTIF($F2:$Q2, "= 1"),"")</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="str">
@@ -14406,22 +14845,22 @@
         <f>IFERROR(MATCH('Input and results'!S4,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="44">
-        <f>SUM(F2:Q2)</f>
+      <c r="R2" s="39">
+        <f>IF(SUM(F2:Q2)&gt;0,SUM(F2:Q2),"")</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="43">
-        <f>IF($E3&lt;&gt;"",COUNTIF($F3:$Q3, "&gt;= 3"),"")</f>
+      <c r="A3" s="38">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="43">
-        <f>IF($E3&lt;&gt;"",COUNTIF($F3:$Q3, "= 2"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="43">
-        <f>IF($E3&lt;&gt;"",COUNTIF($F3:$Q3, "= 1"),"")</f>
+      <c r="B3" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="38">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E3" s="1" t="str">
@@ -14476,22 +14915,22 @@
         <f>IFERROR(MATCH('Input and results'!S5,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="44">
-        <f>SUM(F3:Q3)</f>
+      <c r="R3" s="39">
+        <f t="shared" ref="R3:R18" si="3">IF(SUM(F3:Q3)&gt;0,SUM(F3:Q3),"")</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="43">
-        <f>IF($E4&lt;&gt;"",COUNTIF($F4:$Q4, "&gt;= 3"),"")</f>
+      <c r="A4" s="38">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B4" s="43">
-        <f>IF($E4&lt;&gt;"",COUNTIF($F4:$Q4, "= 2"),"")</f>
+      <c r="B4" s="38">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C4" s="43">
-        <f>IF($E4&lt;&gt;"",COUNTIF($F4:$Q4, "= 1"),"")</f>
+      <c r="C4" s="38">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E4" s="1" t="str">
@@ -14546,22 +14985,22 @@
         <f>IFERROR(MATCH('Input and results'!S6,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="44">
-        <f>SUM(F4:Q4)</f>
+      <c r="R4" s="39">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="str">
-        <f>IF($E5&lt;&gt;"",COUNTIF($F5:$Q5, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B5" s="43" t="str">
-        <f>IF($E5&lt;&gt;"",COUNTIF($F5:$Q5, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C5" s="43" t="str">
-        <f>IF($E5&lt;&gt;"",COUNTIF($F5:$Q5, "= 1"),"")</f>
+      <c r="A5" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B5" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C5" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E5" s="1" t="str">
@@ -14616,22 +15055,22 @@
         <f>IFERROR(MATCH('Input and results'!S7,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="44">
-        <f>SUM(F5:Q5)</f>
-        <v>0</v>
+      <c r="R5" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="str">
-        <f>IF($E6&lt;&gt;"",COUNTIF($F6:$Q6, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B6" s="43" t="str">
-        <f>IF($E6&lt;&gt;"",COUNTIF($F6:$Q6, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C6" s="43" t="str">
-        <f>IF($E6&lt;&gt;"",COUNTIF($F6:$Q6, "= 1"),"")</f>
+      <c r="A6" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B6" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C6" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E6" s="1" t="str">
@@ -14686,22 +15125,22 @@
         <f>IFERROR(MATCH('Input and results'!S8,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="44">
-        <f>SUM(F6:Q6)</f>
-        <v>0</v>
+      <c r="R6" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="str">
-        <f>IF($E7&lt;&gt;"",COUNTIF($F7:$Q7, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B7" s="43" t="str">
-        <f>IF($E7&lt;&gt;"",COUNTIF($F7:$Q7, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C7" s="43" t="str">
-        <f>IF($E7&lt;&gt;"",COUNTIF($F7:$Q7, "= 1"),"")</f>
+      <c r="A7" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C7" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E7" s="1" t="str">
@@ -14756,22 +15195,22 @@
         <f>IFERROR(MATCH('Input and results'!S9,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="44">
-        <f>SUM(F7:Q7)</f>
-        <v>0</v>
+      <c r="R7" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="str">
-        <f>IF($E8&lt;&gt;"",COUNTIF($F8:$Q8, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B8" s="43" t="str">
-        <f>IF($E8&lt;&gt;"",COUNTIF($F8:$Q8, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C8" s="43" t="str">
-        <f>IF($E8&lt;&gt;"",COUNTIF($F8:$Q8, "= 1"),"")</f>
+      <c r="A8" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B8" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C8" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E8" s="1" t="str">
@@ -14826,22 +15265,22 @@
         <f>IFERROR(MATCH('Input and results'!S10,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="44">
-        <f>SUM(F8:Q8)</f>
-        <v>0</v>
+      <c r="R8" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="str">
-        <f>IF($E9&lt;&gt;"",COUNTIF($F9:$Q9, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B9" s="43" t="str">
-        <f>IF($E9&lt;&gt;"",COUNTIF($F9:$Q9, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="43" t="str">
-        <f>IF($E9&lt;&gt;"",COUNTIF($F9:$Q9, "= 1"),"")</f>
+      <c r="A9" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B9" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C9" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E9" s="1" t="str">
@@ -14896,22 +15335,22 @@
         <f>IFERROR(MATCH('Input and results'!S11,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="44">
-        <f>SUM(F9:Q9)</f>
-        <v>0</v>
+      <c r="R9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="str">
-        <f>IF($E10&lt;&gt;"",COUNTIF($F10:$Q10, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B10" s="43" t="str">
-        <f>IF($E10&lt;&gt;"",COUNTIF($F10:$Q10, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C10" s="43" t="str">
-        <f>IF($E10&lt;&gt;"",COUNTIF($F10:$Q10, "= 1"),"")</f>
+      <c r="A10" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B10" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C10" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E10" s="1" t="str">
@@ -14966,22 +15405,22 @@
         <f>IFERROR(MATCH('Input and results'!S12,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="44">
-        <f>SUM(F10:Q10)</f>
-        <v>0</v>
+      <c r="R10" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="str">
-        <f>IF($E11&lt;&gt;"",COUNTIF($F11:$Q11, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="43" t="str">
-        <f>IF($E11&lt;&gt;"",COUNTIF($F11:$Q11, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C11" s="43" t="str">
-        <f>IF($E11&lt;&gt;"",COUNTIF($F11:$Q11, "= 1"),"")</f>
+      <c r="A11" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B11" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C11" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E11" s="1" t="str">
@@ -15036,22 +15475,22 @@
         <f>IFERROR(MATCH('Input and results'!S13,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="44">
-        <f>SUM(F11:Q11)</f>
-        <v>0</v>
+      <c r="R11" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="str">
-        <f>IF($E12&lt;&gt;"",COUNTIF($F12:$Q12, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B12" s="43" t="str">
-        <f>IF($E12&lt;&gt;"",COUNTIF($F12:$Q12, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C12" s="43" t="str">
-        <f>IF($E12&lt;&gt;"",COUNTIF($F12:$Q12, "= 1"),"")</f>
+      <c r="A12" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B12" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C12" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E12" s="1" t="str">
@@ -15106,22 +15545,22 @@
         <f>IFERROR(MATCH('Input and results'!S14,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="44">
-        <f>SUM(F12:Q12)</f>
-        <v>0</v>
+      <c r="R12" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="str">
-        <f>IF($E13&lt;&gt;"",COUNTIF($F13:$Q13, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="43" t="str">
-        <f>IF($E13&lt;&gt;"",COUNTIF($F13:$Q13, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C13" s="43" t="str">
-        <f>IF($E13&lt;&gt;"",COUNTIF($F13:$Q13, "= 1"),"")</f>
+      <c r="A13" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B13" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C13" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E13" s="1" t="str">
@@ -15176,22 +15615,22 @@
         <f>IFERROR(MATCH('Input and results'!S15,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="44">
-        <f>SUM(F13:Q13)</f>
-        <v>0</v>
+      <c r="R13" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="str">
-        <f>IF($E14&lt;&gt;"",COUNTIF($F14:$Q14, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="43" t="str">
-        <f>IF($E14&lt;&gt;"",COUNTIF($F14:$Q14, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="43" t="str">
-        <f>IF($E14&lt;&gt;"",COUNTIF($F14:$Q14, "= 1"),"")</f>
+      <c r="A14" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B14" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C14" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E14" s="1" t="str">
@@ -15246,22 +15685,22 @@
         <f>IFERROR(MATCH('Input and results'!S16,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="44">
-        <f>SUM(F14:Q14)</f>
-        <v>0</v>
+      <c r="R14" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="str">
-        <f>IF($E15&lt;&gt;"",COUNTIF($F15:$Q15, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B15" s="43" t="str">
-        <f>IF($E15&lt;&gt;"",COUNTIF($F15:$Q15, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C15" s="43" t="str">
-        <f>IF($E15&lt;&gt;"",COUNTIF($F15:$Q15, "= 1"),"")</f>
+      <c r="A15" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B15" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C15" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E15" s="1" t="str">
@@ -15316,22 +15755,22 @@
         <f>IFERROR(MATCH('Input and results'!S17,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="44">
-        <f>SUM(F15:Q15)</f>
-        <v>0</v>
+      <c r="R15" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="str">
-        <f>IF($E16&lt;&gt;"",COUNTIF($F16:$Q16, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="43" t="str">
-        <f>IF($E16&lt;&gt;"",COUNTIF($F16:$Q16, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C16" s="43" t="str">
-        <f>IF($E16&lt;&gt;"",COUNTIF($F16:$Q16, "= 1"),"")</f>
+      <c r="A16" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B16" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C16" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E16" s="1" t="str">
@@ -15386,22 +15825,22 @@
         <f>IFERROR(MATCH('Input and results'!S18,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="44">
-        <f>SUM(F16:Q16)</f>
-        <v>0</v>
+      <c r="R16" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="str">
-        <f>IF($E17&lt;&gt;"",COUNTIF($F17:$Q17, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="43" t="str">
-        <f>IF($E17&lt;&gt;"",COUNTIF($F17:$Q17, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C17" s="43" t="str">
-        <f>IF($E17&lt;&gt;"",COUNTIF($F17:$Q17, "= 1"),"")</f>
+      <c r="A17" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B17" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C17" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E17" s="1" t="str">
@@ -15456,22 +15895,22 @@
         <f>IFERROR(MATCH('Input and results'!S19,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="44">
-        <f>SUM(F17:Q17)</f>
-        <v>0</v>
+      <c r="R17" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="str">
-        <f>IF($E18&lt;&gt;"",COUNTIF($F18:$Q18, "&gt;= 3"),"")</f>
-        <v/>
-      </c>
-      <c r="B18" s="43" t="str">
-        <f>IF($E18&lt;&gt;"",COUNTIF($F18:$Q18, "= 2"),"")</f>
-        <v/>
-      </c>
-      <c r="C18" s="43" t="str">
-        <f>IF($E18&lt;&gt;"",COUNTIF($F18:$Q18, "= 1"),"")</f>
+      <c r="A18" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B18" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C18" s="38" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E18" s="1" t="str">
@@ -15526,9 +15965,9 @@
         <f>IFERROR(MATCH('Input and results'!S20,Settings!$G$6:$G$10,0)-1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="44">
-        <f>SUM(F18:Q18)</f>
-        <v>0</v>
+      <c r="R18" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -15616,443 +16055,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N58"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="22">
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
-        <v>1</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3">
-        <v>7</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="21">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="21">
-        <v>0</v>
-      </c>
-      <c r="C40" s="21">
-        <v>1</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="21">
-        <v>0</v>
-      </c>
-      <c r="B41" s="28">
-        <v>9</v>
-      </c>
-      <c r="C41" s="29">
-        <v>7</v>
-      </c>
-      <c r="D41" s="30">
-        <v>3</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="21">
-        <v>1</v>
-      </c>
-      <c r="B42" s="31">
-        <v>8</v>
-      </c>
-      <c r="C42" s="32">
-        <v>5</v>
-      </c>
-      <c r="D42" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="34">
-        <v>6</v>
-      </c>
-      <c r="C43" s="35">
-        <v>4</v>
-      </c>
-      <c r="D43" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:I5"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B7:D9">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I9">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/Spreadsheets/Capability Matrix v2.xlsx
+++ b/Spreadsheets/Capability Matrix v2.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troy/Dropbox/Private/GitHub/FocusedObjective.Resources/Spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\troym\Dropbox\Private\GitHub\FocusedObjective.Resources\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16240"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16455" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="6" r:id="rId1"/>
     <sheet name="Settings" sheetId="2" r:id="rId2"/>
     <sheet name="Survey Sheet" sheetId="5" r:id="rId3"/>
     <sheet name="Input and results" sheetId="1" r:id="rId4"/>
-    <sheet name="Planning and Stabilizing Teams" sheetId="9" r:id="rId5"/>
-    <sheet name="Calculations" sheetId="10" r:id="rId6"/>
+    <sheet name="Future Need Gaps" sheetId="11" state="hidden" r:id="rId5"/>
+    <sheet name="Planning and Stabilizing Teams" sheetId="9" r:id="rId6"/>
+    <sheet name="Calculations" sheetId="10" r:id="rId7"/>
+    <sheet name="Calculations Gaps" sheetId="12" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="Skills_Header" localSheetId="7">Settings!#REF!</definedName>
     <definedName name="Skills_Header">Settings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>Strongly Interested</t>
   </si>
@@ -315,11 +318,53 @@
   <si>
     <t>impressing everyone with all things people CAN do.</t>
   </si>
+  <si>
+    <t>Skill Need for Project</t>
+  </si>
+  <si>
+    <t>Not needed</t>
+  </si>
+  <si>
+    <t>Light need (occasional)</t>
+  </si>
+  <si>
+    <t>Moderate need (often)</t>
+  </si>
+  <si>
+    <t>Heavy need (consistently needed)</t>
+  </si>
+  <si>
+    <t>Critical (immediate availability needed)</t>
+  </si>
+  <si>
+    <t>Capabilities</t>
+  </si>
+  <si>
+    <t>Needs</t>
+  </si>
+  <si>
+    <t>Projects / Features</t>
+  </si>
+  <si>
+    <t>Project 1</t>
+  </si>
+  <si>
+    <t>Project 2</t>
+  </si>
+  <si>
+    <t>Fature 1</t>
+  </si>
+  <si>
+    <t>Enter what amount of each skill is needed for the projects</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -665,7 +710,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -770,6 +815,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,6 +859,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -832,7 +883,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -980,7 +1037,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1417,7 +1480,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Creative Commons License"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Creative Commons License">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1464,7 +1533,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="https://print.staples.com/lp.aspx?alt_doc_id=3Q941-H1A65-6M6&amp;width=510"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="https://print.staples.com/lp.aspx?alt_doc_id=3Q941-H1A65-6M6&amp;width=510">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1528,7 +1603,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1610,7 +1691,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1679,7 +1766,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1781,7 +1874,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1850,7 +1949,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1924,7 +2029,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Flowchart: Process 1"/>
+        <xdr:cNvPr id="2" name="Flowchart: Process 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1984,7 +2095,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flowchart: Process 2"/>
+        <xdr:cNvPr id="3" name="Flowchart: Process 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2044,7 +2161,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Flowchart: Process 3"/>
+        <xdr:cNvPr id="4" name="Flowchart: Process 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2104,7 +2227,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Flowchart: Process 4"/>
+        <xdr:cNvPr id="5" name="Flowchart: Process 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2164,7 +2293,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Flowchart: Process 5"/>
+        <xdr:cNvPr id="6" name="Flowchart: Process 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2224,7 +2359,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Flowchart: Process 6"/>
+        <xdr:cNvPr id="7" name="Flowchart: Process 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2284,7 +2425,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Flowchart: Process 7"/>
+        <xdr:cNvPr id="8" name="Flowchart: Process 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2344,7 +2491,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Flowchart: Process 8"/>
+        <xdr:cNvPr id="9" name="Flowchart: Process 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2404,7 +2557,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Flowchart: Process 9"/>
+        <xdr:cNvPr id="10" name="Flowchart: Process 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2464,7 +2623,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Flowchart: Process 10"/>
+        <xdr:cNvPr id="11" name="Flowchart: Process 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2524,7 +2689,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Flowchart: Process 11"/>
+        <xdr:cNvPr id="12" name="Flowchart: Process 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2584,7 +2755,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Flowchart: Process 12"/>
+        <xdr:cNvPr id="13" name="Flowchart: Process 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2644,7 +2821,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Flowchart: Process 13"/>
+        <xdr:cNvPr id="14" name="Flowchart: Process 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2704,7 +2887,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Flowchart: Process 14"/>
+        <xdr:cNvPr id="15" name="Flowchart: Process 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2764,7 +2953,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Flowchart: Process 15"/>
+        <xdr:cNvPr id="16" name="Flowchart: Process 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2824,7 +3019,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Flowchart: Process 16"/>
+        <xdr:cNvPr id="17" name="Flowchart: Process 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2884,7 +3085,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Flowchart: Process 17"/>
+        <xdr:cNvPr id="18" name="Flowchart: Process 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2944,7 +3151,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Flowchart: Process 21"/>
+        <xdr:cNvPr id="22" name="Flowchart: Process 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3004,7 +3217,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Flowchart: Process 22"/>
+        <xdr:cNvPr id="23" name="Flowchart: Process 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3064,7 +3283,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Flowchart: Process 23"/>
+        <xdr:cNvPr id="24" name="Flowchart: Process 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3124,7 +3349,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Flowchart: Process 24"/>
+        <xdr:cNvPr id="25" name="Flowchart: Process 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3184,7 +3415,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Flowchart: Process 25"/>
+        <xdr:cNvPr id="26" name="Flowchart: Process 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3244,7 +3481,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Flowchart: Process 26"/>
+        <xdr:cNvPr id="27" name="Flowchart: Process 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3304,7 +3547,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Flowchart: Process 27"/>
+        <xdr:cNvPr id="28" name="Flowchart: Process 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3364,7 +3613,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Flowchart: Process 28"/>
+        <xdr:cNvPr id="29" name="Flowchart: Process 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3424,7 +3679,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Flowchart: Process 29"/>
+        <xdr:cNvPr id="30" name="Flowchart: Process 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3484,7 +3745,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Flowchart: Process 30"/>
+        <xdr:cNvPr id="31" name="Flowchart: Process 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3544,7 +3811,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Flowchart: Process 31"/>
+        <xdr:cNvPr id="32" name="Flowchart: Process 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3604,7 +3877,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Flowchart: Process 32"/>
+        <xdr:cNvPr id="33" name="Flowchart: Process 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3664,7 +3943,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Flowchart: Process 33"/>
+        <xdr:cNvPr id="34" name="Flowchart: Process 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3724,7 +4009,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Flowchart: Process 34"/>
+        <xdr:cNvPr id="35" name="Flowchart: Process 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3784,7 +4075,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Flowchart: Process 35"/>
+        <xdr:cNvPr id="36" name="Flowchart: Process 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3844,7 +4141,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Flowchart: Process 36"/>
+        <xdr:cNvPr id="37" name="Flowchart: Process 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3904,7 +4207,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Flowchart: Process 37"/>
+        <xdr:cNvPr id="38" name="Flowchart: Process 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3964,7 +4273,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Flowchart: Process 40"/>
+        <xdr:cNvPr id="41" name="Flowchart: Process 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4024,7 +4339,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Flowchart: Process 41"/>
+        <xdr:cNvPr id="42" name="Flowchart: Process 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4084,7 +4405,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Flowchart: Process 42"/>
+        <xdr:cNvPr id="43" name="Flowchart: Process 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4144,7 +4471,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Flowchart: Process 43"/>
+        <xdr:cNvPr id="44" name="Flowchart: Process 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4204,7 +4537,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Flowchart: Process 44"/>
+        <xdr:cNvPr id="45" name="Flowchart: Process 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4264,7 +4603,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Flowchart: Process 45"/>
+        <xdr:cNvPr id="46" name="Flowchart: Process 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4324,7 +4669,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Flowchart: Process 46"/>
+        <xdr:cNvPr id="47" name="Flowchart: Process 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4384,7 +4735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Flowchart: Process 47"/>
+        <xdr:cNvPr id="48" name="Flowchart: Process 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4444,7 +4801,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Flowchart: Process 48"/>
+        <xdr:cNvPr id="49" name="Flowchart: Process 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4504,7 +4867,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Flowchart: Process 49"/>
+        <xdr:cNvPr id="50" name="Flowchart: Process 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4564,7 +4933,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Flowchart: Process 50"/>
+        <xdr:cNvPr id="51" name="Flowchart: Process 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4624,7 +4999,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Flowchart: Process 51"/>
+        <xdr:cNvPr id="52" name="Flowchart: Process 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4684,7 +5065,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Flowchart: Process 52"/>
+        <xdr:cNvPr id="53" name="Flowchart: Process 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4744,7 +5131,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Flowchart: Process 53"/>
+        <xdr:cNvPr id="54" name="Flowchart: Process 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4804,7 +5197,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Flowchart: Process 54"/>
+        <xdr:cNvPr id="55" name="Flowchart: Process 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4864,7 +5263,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Flowchart: Process 55"/>
+        <xdr:cNvPr id="56" name="Flowchart: Process 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4924,7 +5329,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Flowchart: Process 56"/>
+        <xdr:cNvPr id="57" name="Flowchart: Process 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4984,7 +5395,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Flowchart: Process 59"/>
+        <xdr:cNvPr id="60" name="Flowchart: Process 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5044,7 +5461,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Flowchart: Process 60"/>
+        <xdr:cNvPr id="61" name="Flowchart: Process 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5104,7 +5527,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Flowchart: Process 61"/>
+        <xdr:cNvPr id="62" name="Flowchart: Process 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5164,7 +5593,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Flowchart: Process 62"/>
+        <xdr:cNvPr id="63" name="Flowchart: Process 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5224,7 +5659,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Flowchart: Process 63"/>
+        <xdr:cNvPr id="64" name="Flowchart: Process 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5284,7 +5725,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Flowchart: Process 64"/>
+        <xdr:cNvPr id="65" name="Flowchart: Process 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5344,7 +5791,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Flowchart: Process 65"/>
+        <xdr:cNvPr id="66" name="Flowchart: Process 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5404,7 +5857,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Flowchart: Process 66"/>
+        <xdr:cNvPr id="67" name="Flowchart: Process 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5464,7 +5923,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Flowchart: Process 67"/>
+        <xdr:cNvPr id="68" name="Flowchart: Process 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5524,7 +5989,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Flowchart: Process 68"/>
+        <xdr:cNvPr id="69" name="Flowchart: Process 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5584,7 +6055,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Flowchart: Process 69"/>
+        <xdr:cNvPr id="70" name="Flowchart: Process 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5644,7 +6121,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Flowchart: Process 70"/>
+        <xdr:cNvPr id="71" name="Flowchart: Process 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5704,7 +6187,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Flowchart: Process 71"/>
+        <xdr:cNvPr id="72" name="Flowchart: Process 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5764,7 +6253,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Flowchart: Process 72"/>
+        <xdr:cNvPr id="73" name="Flowchart: Process 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5824,7 +6319,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="Flowchart: Process 73"/>
+        <xdr:cNvPr id="74" name="Flowchart: Process 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5884,7 +6385,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Flowchart: Process 74"/>
+        <xdr:cNvPr id="75" name="Flowchart: Process 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5944,7 +6451,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Flowchart: Process 75"/>
+        <xdr:cNvPr id="76" name="Flowchart: Process 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6004,7 +6517,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="Flowchart: Process 78"/>
+        <xdr:cNvPr id="79" name="Flowchart: Process 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6064,7 +6583,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Flowchart: Process 79"/>
+        <xdr:cNvPr id="80" name="Flowchart: Process 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6124,7 +6649,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Flowchart: Process 80"/>
+        <xdr:cNvPr id="81" name="Flowchart: Process 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6184,7 +6715,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="Flowchart: Process 81"/>
+        <xdr:cNvPr id="82" name="Flowchart: Process 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6244,7 +6781,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="Flowchart: Process 82"/>
+        <xdr:cNvPr id="83" name="Flowchart: Process 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6304,7 +6847,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="Flowchart: Process 83"/>
+        <xdr:cNvPr id="84" name="Flowchart: Process 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6364,7 +6913,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="Flowchart: Process 84"/>
+        <xdr:cNvPr id="85" name="Flowchart: Process 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6424,7 +6979,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="Flowchart: Process 85"/>
+        <xdr:cNvPr id="86" name="Flowchart: Process 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6484,7 +7045,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="Flowchart: Process 86"/>
+        <xdr:cNvPr id="87" name="Flowchart: Process 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6544,7 +7111,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Flowchart: Process 87"/>
+        <xdr:cNvPr id="88" name="Flowchart: Process 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6604,7 +7177,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="Flowchart: Process 88"/>
+        <xdr:cNvPr id="89" name="Flowchart: Process 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6664,7 +7243,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="Flowchart: Process 89"/>
+        <xdr:cNvPr id="90" name="Flowchart: Process 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6724,7 +7309,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Flowchart: Process 90"/>
+        <xdr:cNvPr id="91" name="Flowchart: Process 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6784,7 +7375,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Flowchart: Process 91"/>
+        <xdr:cNvPr id="92" name="Flowchart: Process 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6844,7 +7441,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Flowchart: Process 92"/>
+        <xdr:cNvPr id="93" name="Flowchart: Process 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6904,7 +7507,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Flowchart: Process 93"/>
+        <xdr:cNvPr id="94" name="Flowchart: Process 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6964,7 +7573,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="Flowchart: Process 94"/>
+        <xdr:cNvPr id="95" name="Flowchart: Process 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7024,7 +7639,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="321" name="Flowchart: Process 320"/>
+        <xdr:cNvPr id="321" name="Flowchart: Process 320">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7084,7 +7705,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="322" name="Flowchart: Process 321"/>
+        <xdr:cNvPr id="322" name="Flowchart: Process 321">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7144,7 +7771,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="323" name="Flowchart: Process 322"/>
+        <xdr:cNvPr id="323" name="Flowchart: Process 322">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7204,7 +7837,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="324" name="Flowchart: Process 323"/>
+        <xdr:cNvPr id="324" name="Flowchart: Process 323">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7264,7 +7903,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="325" name="Flowchart: Process 324"/>
+        <xdr:cNvPr id="325" name="Flowchart: Process 324">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7324,7 +7969,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="326" name="Flowchart: Process 325"/>
+        <xdr:cNvPr id="326" name="Flowchart: Process 325">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7384,7 +8035,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="327" name="Flowchart: Process 326"/>
+        <xdr:cNvPr id="327" name="Flowchart: Process 326">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7444,7 +8101,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="328" name="Flowchart: Process 327"/>
+        <xdr:cNvPr id="328" name="Flowchart: Process 327">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7504,7 +8167,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="329" name="Flowchart: Process 328"/>
+        <xdr:cNvPr id="329" name="Flowchart: Process 328">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7564,7 +8233,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="330" name="Flowchart: Process 329"/>
+        <xdr:cNvPr id="330" name="Flowchart: Process 329">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7624,7 +8299,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="331" name="Flowchart: Process 330"/>
+        <xdr:cNvPr id="331" name="Flowchart: Process 330">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7684,7 +8365,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="332" name="Flowchart: Process 331"/>
+        <xdr:cNvPr id="332" name="Flowchart: Process 331">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7744,7 +8431,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="333" name="Flowchart: Process 332"/>
+        <xdr:cNvPr id="333" name="Flowchart: Process 332">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7804,7 +8497,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="334" name="Flowchart: Process 333"/>
+        <xdr:cNvPr id="334" name="Flowchart: Process 333">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7864,7 +8563,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="335" name="Flowchart: Process 334"/>
+        <xdr:cNvPr id="335" name="Flowchart: Process 334">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7924,7 +8629,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="336" name="Flowchart: Process 335"/>
+        <xdr:cNvPr id="336" name="Flowchart: Process 335">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7984,7 +8695,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="337" name="Flowchart: Process 336"/>
+        <xdr:cNvPr id="337" name="Flowchart: Process 336">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8044,7 +8761,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="341" name="Flowchart: Process 340"/>
+        <xdr:cNvPr id="341" name="Flowchart: Process 340">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8104,7 +8827,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="342" name="Flowchart: Process 341"/>
+        <xdr:cNvPr id="342" name="Flowchart: Process 341">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8164,7 +8893,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="343" name="Flowchart: Process 342"/>
+        <xdr:cNvPr id="343" name="Flowchart: Process 342">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8224,7 +8959,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="344" name="Flowchart: Process 343"/>
+        <xdr:cNvPr id="344" name="Flowchart: Process 343">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8284,7 +9025,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="345" name="Flowchart: Process 344"/>
+        <xdr:cNvPr id="345" name="Flowchart: Process 344">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8344,7 +9091,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="346" name="Flowchart: Process 345"/>
+        <xdr:cNvPr id="346" name="Flowchart: Process 345">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8404,7 +9157,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="347" name="Flowchart: Process 346"/>
+        <xdr:cNvPr id="347" name="Flowchart: Process 346">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8464,7 +9223,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="348" name="Flowchart: Process 347"/>
+        <xdr:cNvPr id="348" name="Flowchart: Process 347">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8524,7 +9289,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="349" name="Flowchart: Process 348"/>
+        <xdr:cNvPr id="349" name="Flowchart: Process 348">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8584,7 +9355,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="350" name="Flowchart: Process 349"/>
+        <xdr:cNvPr id="350" name="Flowchart: Process 349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8644,7 +9421,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="351" name="Flowchart: Process 350"/>
+        <xdr:cNvPr id="351" name="Flowchart: Process 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8704,7 +9487,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="352" name="Flowchart: Process 351"/>
+        <xdr:cNvPr id="352" name="Flowchart: Process 351">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8764,7 +9553,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="353" name="Flowchart: Process 352"/>
+        <xdr:cNvPr id="353" name="Flowchart: Process 352">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8824,7 +9619,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="354" name="Flowchart: Process 353"/>
+        <xdr:cNvPr id="354" name="Flowchart: Process 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8884,7 +9685,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="355" name="Flowchart: Process 354"/>
+        <xdr:cNvPr id="355" name="Flowchart: Process 354">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8944,7 +9751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="356" name="Flowchart: Process 355"/>
+        <xdr:cNvPr id="356" name="Flowchart: Process 355">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9004,7 +9817,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="357" name="Flowchart: Process 356"/>
+        <xdr:cNvPr id="357" name="Flowchart: Process 356">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9064,7 +9883,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="360" name="Flowchart: Process 359"/>
+        <xdr:cNvPr id="360" name="Flowchart: Process 359">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9124,7 +9949,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="361" name="Flowchart: Process 360"/>
+        <xdr:cNvPr id="361" name="Flowchart: Process 360">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9184,7 +10015,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="362" name="Flowchart: Process 361"/>
+        <xdr:cNvPr id="362" name="Flowchart: Process 361">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9244,7 +10081,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="363" name="Flowchart: Process 362"/>
+        <xdr:cNvPr id="363" name="Flowchart: Process 362">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9304,7 +10147,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="364" name="Flowchart: Process 363"/>
+        <xdr:cNvPr id="364" name="Flowchart: Process 363">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9364,7 +10213,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="365" name="Flowchart: Process 364"/>
+        <xdr:cNvPr id="365" name="Flowchart: Process 364">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9424,7 +10279,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="366" name="Flowchart: Process 365"/>
+        <xdr:cNvPr id="366" name="Flowchart: Process 365">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9484,7 +10345,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="367" name="Flowchart: Process 366"/>
+        <xdr:cNvPr id="367" name="Flowchart: Process 366">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9544,7 +10411,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="368" name="Flowchart: Process 367"/>
+        <xdr:cNvPr id="368" name="Flowchart: Process 367">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9604,7 +10477,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="369" name="Flowchart: Process 368"/>
+        <xdr:cNvPr id="369" name="Flowchart: Process 368">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9664,7 +10543,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="370" name="Flowchart: Process 369"/>
+        <xdr:cNvPr id="370" name="Flowchart: Process 369">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9724,7 +10609,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="371" name="Flowchart: Process 370"/>
+        <xdr:cNvPr id="371" name="Flowchart: Process 370">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9784,7 +10675,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="372" name="Flowchart: Process 371"/>
+        <xdr:cNvPr id="372" name="Flowchart: Process 371">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9844,7 +10741,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="373" name="Flowchart: Process 372"/>
+        <xdr:cNvPr id="373" name="Flowchart: Process 372">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9904,7 +10807,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="374" name="Flowchart: Process 373"/>
+        <xdr:cNvPr id="374" name="Flowchart: Process 373">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9964,7 +10873,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="375" name="Flowchart: Process 374"/>
+        <xdr:cNvPr id="375" name="Flowchart: Process 374">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10024,7 +10939,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="376" name="Flowchart: Process 375"/>
+        <xdr:cNvPr id="376" name="Flowchart: Process 375">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10084,7 +11005,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="379" name="Flowchart: Process 378"/>
+        <xdr:cNvPr id="379" name="Flowchart: Process 378">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10144,7 +11071,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="380" name="Flowchart: Process 379"/>
+        <xdr:cNvPr id="380" name="Flowchart: Process 379">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10204,7 +11137,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="381" name="Flowchart: Process 380"/>
+        <xdr:cNvPr id="381" name="Flowchart: Process 380">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10264,7 +11203,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="382" name="Flowchart: Process 381"/>
+        <xdr:cNvPr id="382" name="Flowchart: Process 381">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10324,7 +11269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="383" name="Flowchart: Process 382"/>
+        <xdr:cNvPr id="383" name="Flowchart: Process 382">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10384,7 +11335,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="384" name="Flowchart: Process 383"/>
+        <xdr:cNvPr id="384" name="Flowchart: Process 383">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10444,7 +11401,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="385" name="Flowchart: Process 384"/>
+        <xdr:cNvPr id="385" name="Flowchart: Process 384">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10504,7 +11467,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="386" name="Flowchart: Process 385"/>
+        <xdr:cNvPr id="386" name="Flowchart: Process 385">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10564,7 +11533,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="387" name="Flowchart: Process 386"/>
+        <xdr:cNvPr id="387" name="Flowchart: Process 386">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10624,7 +11599,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="388" name="Flowchart: Process 387"/>
+        <xdr:cNvPr id="388" name="Flowchart: Process 387">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10684,7 +11665,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="389" name="Flowchart: Process 388"/>
+        <xdr:cNvPr id="389" name="Flowchart: Process 388">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10744,7 +11731,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="390" name="Flowchart: Process 389"/>
+        <xdr:cNvPr id="390" name="Flowchart: Process 389">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10804,7 +11797,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="391" name="Flowchart: Process 390"/>
+        <xdr:cNvPr id="391" name="Flowchart: Process 390">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000087010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10864,7 +11863,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="392" name="Flowchart: Process 391"/>
+        <xdr:cNvPr id="392" name="Flowchart: Process 391">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10924,7 +11929,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="393" name="Flowchart: Process 392"/>
+        <xdr:cNvPr id="393" name="Flowchart: Process 392">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000089010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10984,7 +11995,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="394" name="Flowchart: Process 393"/>
+        <xdr:cNvPr id="394" name="Flowchart: Process 393">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11044,7 +12061,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="395" name="Flowchart: Process 394"/>
+        <xdr:cNvPr id="395" name="Flowchart: Process 394">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11104,7 +12127,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="398" name="Flowchart: Process 397"/>
+        <xdr:cNvPr id="398" name="Flowchart: Process 397">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11164,7 +12193,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="399" name="Flowchart: Process 398"/>
+        <xdr:cNvPr id="399" name="Flowchart: Process 398">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11224,7 +12259,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="400" name="Flowchart: Process 399"/>
+        <xdr:cNvPr id="400" name="Flowchart: Process 399">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11284,7 +12325,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="401" name="Flowchart: Process 400"/>
+        <xdr:cNvPr id="401" name="Flowchart: Process 400">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11344,7 +12391,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="402" name="Flowchart: Process 401"/>
+        <xdr:cNvPr id="402" name="Flowchart: Process 401">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000092010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11404,7 +12457,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="403" name="Flowchart: Process 402"/>
+        <xdr:cNvPr id="403" name="Flowchart: Process 402">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000093010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11464,7 +12523,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="404" name="Flowchart: Process 403"/>
+        <xdr:cNvPr id="404" name="Flowchart: Process 403">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000094010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11524,7 +12589,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="405" name="Flowchart: Process 404"/>
+        <xdr:cNvPr id="405" name="Flowchart: Process 404">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11584,7 +12655,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="406" name="Flowchart: Process 405"/>
+        <xdr:cNvPr id="406" name="Flowchart: Process 405">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000096010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11644,7 +12721,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="407" name="Flowchart: Process 406"/>
+        <xdr:cNvPr id="407" name="Flowchart: Process 406">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000097010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11704,7 +12787,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="408" name="Flowchart: Process 407"/>
+        <xdr:cNvPr id="408" name="Flowchart: Process 407">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11764,7 +12853,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="409" name="Flowchart: Process 408"/>
+        <xdr:cNvPr id="409" name="Flowchart: Process 408">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11824,7 +12919,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="410" name="Flowchart: Process 409"/>
+        <xdr:cNvPr id="410" name="Flowchart: Process 409">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11884,7 +12985,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="411" name="Flowchart: Process 410"/>
+        <xdr:cNvPr id="411" name="Flowchart: Process 410">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11944,7 +13051,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="412" name="Flowchart: Process 411"/>
+        <xdr:cNvPr id="412" name="Flowchart: Process 411">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12004,7 +13117,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="413" name="Flowchart: Process 412"/>
+        <xdr:cNvPr id="413" name="Flowchart: Process 412">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12064,7 +13183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="414" name="Flowchart: Process 413"/>
+        <xdr:cNvPr id="414" name="Flowchart: Process 413">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12129,7 +13254,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12183,10 +13314,6 @@
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
           </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
           </a:br>
@@ -12529,38 +13656,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="2:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-    </row>
-    <row r="2" spans="2:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+    </row>
+    <row r="2" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P4" s="18">
         <v>1</v>
       </c>
@@ -12568,7 +13695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P5" s="18">
         <v>1.1000000000000001</v>
       </c>
@@ -12576,7 +13703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P6" s="18">
         <v>1.2</v>
       </c>
@@ -12584,7 +13711,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P7" s="18">
         <v>2</v>
       </c>
@@ -12592,52 +13719,52 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P10" s="18"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P11" s="18"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P12" s="18"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P13" s="18"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P18" s="18"/>
     </row>
-    <row r="19" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P19" s="18"/>
     </row>
-    <row r="20" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P20" s="18"/>
     </row>
-    <row r="21" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P21" s="18"/>
     </row>
-    <row r="22" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P22" s="18"/>
     </row>
-    <row r="23" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P23" s="18"/>
     </row>
   </sheetData>
@@ -12652,29 +13779,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B5:K27"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B5:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="47.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="56.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="39.33203125" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" customWidth="1"/>
-    <col min="9" max="9" width="48.6640625" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="11" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" customWidth="1"/>
+    <col min="9" max="9" width="48.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -12691,7 +13818,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
@@ -12705,7 +13832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
@@ -12719,7 +13846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
@@ -12733,8 +13860,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="G9" s="16" t="s">
         <v>13</v>
@@ -12743,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="D10" s="16"/>
       <c r="G10" s="16" t="s">
@@ -12753,69 +13882,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="D13" s="16"/>
       <c r="G13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="D14" s="16"/>
       <c r="G14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G17" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G18" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
       <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G19" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G20" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G21" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="D22" s="16"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G22" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
       <c r="D25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
       <c r="D26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
       <c r="D27" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12826,34 +14000,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="14.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="24.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>9</v>
@@ -12874,7 +14048,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:6" s="13" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="13" customFormat="1" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="str">
         <f>Settings!$G$6</f>
         <v>Know nothing</v>
@@ -13083,12 +14257,12 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="14" t="str">
         <f>Settings!$I$6</f>
@@ -13314,28 +14488,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="38" customWidth="1"/>
     <col min="3" max="3" width="15" style="38" customWidth="1"/>
     <col min="4" max="4" width="17" style="38" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="38" customWidth="1"/>
     <col min="7" max="7" width="31" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.5" customWidth="1"/>
-    <col min="9" max="9" width="32.83203125" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>85</v>
       </c>
@@ -13343,15 +14517,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="43" t="s">
         <v>78</v>
       </c>
@@ -13372,7 +14546,7 @@
       <c r="R2" s="48"/>
       <c r="S2" s="48"/>
     </row>
-    <row r="3" spans="1:19" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>81</v>
       </c>
@@ -13406,7 +14580,7 @@
       </c>
       <c r="K3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B9),"",Settings!$B9)</f>
-        <v/>
+        <v>xxx</v>
       </c>
       <c r="L3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B10),"",Settings!$B10)</f>
@@ -13441,7 +14615,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="str">
         <f>G4</f>
         <v>CSS</v>
@@ -13486,7 +14660,7 @@
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="str">
         <f t="shared" ref="A5:A20" si="0">G5</f>
         <v>Javascript</v>
@@ -13531,7 +14705,7 @@
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f t="shared" si="0"/>
         <v>DB Backup/Restore</v>
@@ -13576,7 +14750,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13615,7 +14789,7 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13654,7 +14828,7 @@
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13693,7 +14867,7 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13732,7 +14906,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13771,7 +14945,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13810,7 +14984,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13849,7 +15023,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13888,7 +15062,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13927,7 +15101,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13966,7 +15140,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14005,7 +15179,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14044,7 +15218,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14083,7 +15257,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14122,16 +15296,16 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F21"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E23" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E24" s="37">
         <v>1</v>
       </c>
@@ -14139,25 +15313,25 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E25" s="37">
         <v>2</v>
       </c>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E26" s="37">
         <v>3</v>
       </c>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E27" s="37">
         <v>4</v>
       </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E28" s="37">
         <v>5</v>
       </c>
@@ -14165,11 +15339,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E31" s="51" t="s">
         <v>87</v>
       </c>
@@ -14262,13 +15436,907 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="46" t="str">
+        <f>IF(ISBLANK(Settings!$B20),"",Settings!$B20)</f>
+        <v>Project 1</v>
+      </c>
+      <c r="K3" s="46" t="str">
+        <f>IF(ISBLANK(Settings!$B21),"",Settings!$B21)</f>
+        <v>Project 2</v>
+      </c>
+      <c r="L3" s="46" t="str">
+        <f>IF(ISBLANK(Settings!$B22),"",Settings!$B22)</f>
+        <v>Fature 1</v>
+      </c>
+      <c r="M3" s="46" t="str">
+        <f>IF(ISBLANK(Settings!$B23),"",Settings!$B23)</f>
+        <v/>
+      </c>
+      <c r="N3" s="46" t="str">
+        <f>IF(ISBLANK(Settings!$B24),"",Settings!$B24)</f>
+        <v/>
+      </c>
+      <c r="O3" s="46" t="str">
+        <f>IF(ISBLANK(Settings!$B25),"",Settings!$B25)</f>
+        <v/>
+      </c>
+      <c r="P3" s="46" t="str">
+        <f>IF(ISBLANK(Settings!$B26),"",Settings!$B26)</f>
+        <v/>
+      </c>
+      <c r="Q3" s="46" t="str">
+        <f>IF(ISBLANK(Settings!$B27),"",Settings!$B27)</f>
+        <v/>
+      </c>
+      <c r="R3" s="46" t="str">
+        <f>IF(ISBLANK(Settings!$B28),"",Settings!$B28)</f>
+        <v/>
+      </c>
+      <c r="S3" s="46" t="str">
+        <f>IF(ISBLANK(Settings!$B29),"",Settings!$B29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="str">
+        <f>I4</f>
+        <v>CSS</v>
+      </c>
+      <c r="B4" s="19">
+        <f>Calculations!A2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <f>Calculations!B2</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <f>Calculations!C2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="40">
+        <f>Calculations!R2</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D6),"",Settings!D6)</f>
+        <v>CSS</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="str">
+        <f t="shared" ref="A5:A20" si="0">I5</f>
+        <v>Javascript</v>
+      </c>
+      <c r="B5" s="19">
+        <f>Calculations!A3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="19">
+        <f>Calculations!B3</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <f>Calculations!C3</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <f>Calculations!R3</f>
+        <v>7</v>
+      </c>
+      <c r="I5" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D7),"",Settings!D7)</f>
+        <v>Javascript</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>DB Backup/Restore</v>
+      </c>
+      <c r="B6" s="19">
+        <f>Calculations!A4</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="19">
+        <f>Calculations!B4</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <f>Calculations!C4</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="40">
+        <f>Calculations!R4</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D8),"",Settings!D8)</f>
+        <v>DB Backup/Restore</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>Calculations!A5</f>
+        <v/>
+      </c>
+      <c r="C7" s="19" t="str">
+        <f>Calculations!B5</f>
+        <v/>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f>Calculations!C5</f>
+        <v/>
+      </c>
+      <c r="E7" s="40" t="str">
+        <f>Calculations!R5</f>
+        <v/>
+      </c>
+      <c r="I7" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D9),"",Settings!D9)</f>
+        <v/>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>Calculations!A6</f>
+        <v/>
+      </c>
+      <c r="C8" s="19" t="str">
+        <f>Calculations!B6</f>
+        <v/>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f>Calculations!C6</f>
+        <v/>
+      </c>
+      <c r="E8" s="40" t="str">
+        <f>Calculations!R6</f>
+        <v/>
+      </c>
+      <c r="I8" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D10),"",Settings!D10)</f>
+        <v/>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>Calculations!A7</f>
+        <v/>
+      </c>
+      <c r="C9" s="19" t="str">
+        <f>Calculations!B7</f>
+        <v/>
+      </c>
+      <c r="D9" s="19" t="str">
+        <f>Calculations!C7</f>
+        <v/>
+      </c>
+      <c r="E9" s="40" t="str">
+        <f>Calculations!R7</f>
+        <v/>
+      </c>
+      <c r="I9" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D11),"",Settings!D11)</f>
+        <v/>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>Calculations!A8</f>
+        <v/>
+      </c>
+      <c r="C10" s="19" t="str">
+        <f>Calculations!B8</f>
+        <v/>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f>Calculations!C8</f>
+        <v/>
+      </c>
+      <c r="E10" s="40" t="str">
+        <f>Calculations!R8</f>
+        <v/>
+      </c>
+      <c r="I10" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D12),"",Settings!D12)</f>
+        <v/>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B11" s="19" t="str">
+        <f>Calculations!A9</f>
+        <v/>
+      </c>
+      <c r="C11" s="19" t="str">
+        <f>Calculations!B9</f>
+        <v/>
+      </c>
+      <c r="D11" s="19" t="str">
+        <f>Calculations!C9</f>
+        <v/>
+      </c>
+      <c r="E11" s="40" t="str">
+        <f>Calculations!R9</f>
+        <v/>
+      </c>
+      <c r="I11" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D13),"",Settings!D13)</f>
+        <v/>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B12" s="19" t="str">
+        <f>Calculations!A10</f>
+        <v/>
+      </c>
+      <c r="C12" s="19" t="str">
+        <f>Calculations!B10</f>
+        <v/>
+      </c>
+      <c r="D12" s="19" t="str">
+        <f>Calculations!C10</f>
+        <v/>
+      </c>
+      <c r="E12" s="40" t="str">
+        <f>Calculations!R10</f>
+        <v/>
+      </c>
+      <c r="I12" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D14),"",Settings!D14)</f>
+        <v/>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B13" s="19" t="str">
+        <f>Calculations!A11</f>
+        <v/>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>Calculations!B11</f>
+        <v/>
+      </c>
+      <c r="D13" s="19" t="str">
+        <f>Calculations!C11</f>
+        <v/>
+      </c>
+      <c r="E13" s="40" t="str">
+        <f>Calculations!R11</f>
+        <v/>
+      </c>
+      <c r="I13" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D15),"",Settings!D15)</f>
+        <v/>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B14" s="19" t="str">
+        <f>Calculations!A12</f>
+        <v/>
+      </c>
+      <c r="C14" s="19" t="str">
+        <f>Calculations!B12</f>
+        <v/>
+      </c>
+      <c r="D14" s="19" t="str">
+        <f>Calculations!C12</f>
+        <v/>
+      </c>
+      <c r="E14" s="40" t="str">
+        <f>Calculations!R12</f>
+        <v/>
+      </c>
+      <c r="I14" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D16),"",Settings!D16)</f>
+        <v/>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B15" s="19" t="str">
+        <f>Calculations!A13</f>
+        <v/>
+      </c>
+      <c r="C15" s="19" t="str">
+        <f>Calculations!B13</f>
+        <v/>
+      </c>
+      <c r="D15" s="19" t="str">
+        <f>Calculations!C13</f>
+        <v/>
+      </c>
+      <c r="E15" s="40" t="str">
+        <f>Calculations!R13</f>
+        <v/>
+      </c>
+      <c r="I15" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D17),"",Settings!D17)</f>
+        <v/>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B16" s="19" t="str">
+        <f>Calculations!A14</f>
+        <v/>
+      </c>
+      <c r="C16" s="19" t="str">
+        <f>Calculations!B14</f>
+        <v/>
+      </c>
+      <c r="D16" s="19" t="str">
+        <f>Calculations!C14</f>
+        <v/>
+      </c>
+      <c r="E16" s="40" t="str">
+        <f>Calculations!R14</f>
+        <v/>
+      </c>
+      <c r="I16" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D18),"",Settings!D18)</f>
+        <v/>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>Calculations!A15</f>
+        <v/>
+      </c>
+      <c r="C17" s="19" t="str">
+        <f>Calculations!B15</f>
+        <v/>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f>Calculations!C15</f>
+        <v/>
+      </c>
+      <c r="E17" s="40" t="str">
+        <f>Calculations!R15</f>
+        <v/>
+      </c>
+      <c r="I17" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D19),"",Settings!D19)</f>
+        <v/>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B18" s="19" t="str">
+        <f>Calculations!A16</f>
+        <v/>
+      </c>
+      <c r="C18" s="19" t="str">
+        <f>Calculations!B16</f>
+        <v/>
+      </c>
+      <c r="D18" s="19" t="str">
+        <f>Calculations!C16</f>
+        <v/>
+      </c>
+      <c r="E18" s="40" t="str">
+        <f>Calculations!R16</f>
+        <v/>
+      </c>
+      <c r="I18" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D20),"",Settings!D20)</f>
+        <v/>
+      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B19" s="19" t="str">
+        <f>Calculations!A17</f>
+        <v/>
+      </c>
+      <c r="C19" s="19" t="str">
+        <f>Calculations!B17</f>
+        <v/>
+      </c>
+      <c r="D19" s="19" t="str">
+        <f>Calculations!C17</f>
+        <v/>
+      </c>
+      <c r="E19" s="40" t="str">
+        <f>Calculations!R17</f>
+        <v/>
+      </c>
+      <c r="I19" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D21),"",Settings!D21)</f>
+        <v/>
+      </c>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B20" s="19" t="str">
+        <f>Calculations!A18</f>
+        <v/>
+      </c>
+      <c r="C20" s="19" t="str">
+        <f>Calculations!B18</f>
+        <v/>
+      </c>
+      <c r="D20" s="19" t="str">
+        <f>Calculations!C18</f>
+        <v/>
+      </c>
+      <c r="E20" s="40" t="str">
+        <f>Calculations!R18</f>
+        <v/>
+      </c>
+      <c r="I20" s="41" t="str">
+        <f>IF(ISBLANK(Settings!D22),"",Settings!D22)</f>
+        <v/>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="37">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="37">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="37">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="37">
+        <v>4</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="37">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E4:E20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="M3" formula="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{8FF91E5F-7B46-EE4B-BAFB-6FBC6D329EB5}">
+            <x14:iconSet iconSet="4TrafficLights" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B4:D20</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Please choose from the drop-down" error="Only values from the list are acceptable. ">
+          <x14:formula1>
+            <xm:f>Settings!$G$18:$G$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>J4:S20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>53</v>
       </c>
@@ -14281,32 +16349,32 @@
       <c r="H1" s="25"/>
       <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>72</v>
       </c>
@@ -14332,7 +16400,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>0</v>
       </c>
@@ -14358,7 +16426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>1</v>
       </c>
@@ -14384,7 +16452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>43</v>
       </c>
@@ -14410,112 +16478,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="25" t="s">
         <v>59</v>
       </c>
@@ -14528,18 +16596,18 @@
       <c r="H35" s="25"/>
       <c r="I35" s="24"/>
     </row>
-    <row r="36" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="21" t="s">
         <v>44</v>
@@ -14547,7 +16615,7 @@
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>54</v>
       </c>
@@ -14561,7 +16629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>0</v>
       </c>
@@ -14582,7 +16650,7 @@
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>1</v>
       </c>
@@ -14596,7 +16664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>43</v>
       </c>
@@ -14610,57 +16678,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>70</v>
       </c>
@@ -14699,25 +16767,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -14742,7 +16810,7 @@
       </c>
       <c r="I1" s="4" t="str">
         <f>'Input and results'!K3</f>
-        <v/>
+        <v>xxx</v>
       </c>
       <c r="J1" s="4" t="str">
         <f>'Input and results'!L3</f>
@@ -14780,7 +16848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="38">
         <f t="shared" ref="A2:A18" si="0">IF($E2&lt;&gt;"",COUNTIF($F2:$Q2, "&gt;= 3"),"")</f>
         <v>0</v>
@@ -14850,7 +16918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -14920,7 +16988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -14990,7 +17058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15060,7 +17128,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15130,7 +17198,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15200,7 +17268,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15270,7 +17338,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15340,7 +17408,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15410,7 +17478,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15480,7 +17548,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15550,7 +17618,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15620,7 +17688,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15690,7 +17758,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15760,7 +17828,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15830,7 +17898,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15900,7 +17968,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -16055,4 +18123,1362 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="18" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="F1" s="4" t="str">
+        <f>'Input and results'!H3</f>
+        <v>Person 1</v>
+      </c>
+      <c r="G1" s="4" t="str">
+        <f>'Input and results'!I3</f>
+        <v>Person 2</v>
+      </c>
+      <c r="H1" s="4" t="str">
+        <f>'Input and results'!J3</f>
+        <v>Team 1</v>
+      </c>
+      <c r="I1" s="4" t="str">
+        <f>'Input and results'!K3</f>
+        <v>xxx</v>
+      </c>
+      <c r="J1" s="4" t="str">
+        <f>'Input and results'!L3</f>
+        <v/>
+      </c>
+      <c r="K1" s="4" t="str">
+        <f>'Input and results'!M3</f>
+        <v/>
+      </c>
+      <c r="L1" s="4" t="str">
+        <f>'Input and results'!N3</f>
+        <v/>
+      </c>
+      <c r="M1" s="4" t="str">
+        <f>'Input and results'!O3</f>
+        <v/>
+      </c>
+      <c r="N1" s="4" t="str">
+        <f>'Input and results'!P3</f>
+        <v/>
+      </c>
+      <c r="O1" s="4" t="str">
+        <f>'Input and results'!Q3</f>
+        <v/>
+      </c>
+      <c r="P1" s="4" t="str">
+        <f>'Input and results'!R3</f>
+        <v/>
+      </c>
+      <c r="Q1" s="4" t="str">
+        <f>'Input and results'!S3</f>
+        <v/>
+      </c>
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <f t="shared" ref="A2:A18" si="0">IF($E2&lt;&gt;"",COUNTIF($F2:$Q2, "&gt;= 3"),"")</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="38">
+        <f t="shared" ref="B2:B18" si="1">IF($E2&lt;&gt;"",COUNTIF($F2:$Q2, "= 2"),"")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="38">
+        <f t="shared" ref="C2:C18" si="2">IF($E2&lt;&gt;"",COUNTIF($F2:$Q2, "= 1"),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>IF('Input and results'!G4&lt;&gt;"",'Input and results'!G4,"")</f>
+        <v>CSS</v>
+      </c>
+      <c r="F2">
+        <f>IFERROR(MATCH('Input and results'!H4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>IFERROR(MATCH('Input and results'!I4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IFERROR(MATCH('Input and results'!J4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f>IFERROR(MATCH('Input and results'!K4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>IFERROR(MATCH('Input and results'!L4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>IFERROR(MATCH('Input and results'!M4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IFERROR(MATCH('Input and results'!N4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>IFERROR(MATCH('Input and results'!O4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>IFERROR(MATCH('Input and results'!P4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>IFERROR(MATCH('Input and results'!Q4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>IFERROR(MATCH('Input and results'!R4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>IFERROR(MATCH('Input and results'!S4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="39">
+        <f>IF(SUM(F2:Q2)&gt;0,SUM(F2:Q2),"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>IF('Input and results'!G5&lt;&gt;"",'Input and results'!G5,"")</f>
+        <v>Javascript</v>
+      </c>
+      <c r="F3">
+        <f>IFERROR(MATCH('Input and results'!H5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f>IFERROR(MATCH('Input and results'!I5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <f>IFERROR(MATCH('Input and results'!J5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>IFERROR(MATCH('Input and results'!K5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>IFERROR(MATCH('Input and results'!L5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>IFERROR(MATCH('Input and results'!M5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>IFERROR(MATCH('Input and results'!N5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>IFERROR(MATCH('Input and results'!O5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>IFERROR(MATCH('Input and results'!P5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>IFERROR(MATCH('Input and results'!Q5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>IFERROR(MATCH('Input and results'!R5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>IFERROR(MATCH('Input and results'!S5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="39">
+        <f t="shared" ref="R3:R18" si="3">IF(SUM(F3:Q3)&gt;0,SUM(F3:Q3),"")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>IF('Input and results'!G6&lt;&gt;"",'Input and results'!G6,"")</f>
+        <v>DB Backup/Restore</v>
+      </c>
+      <c r="F4">
+        <f>IFERROR(MATCH('Input and results'!H6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>IFERROR(MATCH('Input and results'!I6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>IFERROR(MATCH('Input and results'!J6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f>IFERROR(MATCH('Input and results'!K6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>IFERROR(MATCH('Input and results'!L6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>IFERROR(MATCH('Input and results'!M6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>IFERROR(MATCH('Input and results'!N6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>IFERROR(MATCH('Input and results'!O6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>IFERROR(MATCH('Input and results'!P6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>IFERROR(MATCH('Input and results'!Q6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>IFERROR(MATCH('Input and results'!R6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>IFERROR(MATCH('Input and results'!S6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="39">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B5" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C5" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>IF('Input and results'!G7&lt;&gt;"",'Input and results'!G7,"")</f>
+        <v/>
+      </c>
+      <c r="F5">
+        <f>IFERROR(MATCH('Input and results'!H7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>IFERROR(MATCH('Input and results'!I7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>IFERROR(MATCH('Input and results'!J7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>IFERROR(MATCH('Input and results'!K7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>IFERROR(MATCH('Input and results'!L7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>IFERROR(MATCH('Input and results'!M7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>IFERROR(MATCH('Input and results'!N7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>IFERROR(MATCH('Input and results'!O7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>IFERROR(MATCH('Input and results'!P7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>IFERROR(MATCH('Input and results'!Q7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>IFERROR(MATCH('Input and results'!R7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>IFERROR(MATCH('Input and results'!S7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B6" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C6" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>IF('Input and results'!G8&lt;&gt;"",'Input and results'!G8,"")</f>
+        <v/>
+      </c>
+      <c r="F6">
+        <f>IFERROR(MATCH('Input and results'!H8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>IFERROR(MATCH('Input and results'!I8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>IFERROR(MATCH('Input and results'!J8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>IFERROR(MATCH('Input and results'!K8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>IFERROR(MATCH('Input and results'!L8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>IFERROR(MATCH('Input and results'!M8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>IFERROR(MATCH('Input and results'!N8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>IFERROR(MATCH('Input and results'!O8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>IFERROR(MATCH('Input and results'!P8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>IFERROR(MATCH('Input and results'!Q8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>IFERROR(MATCH('Input and results'!R8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>IFERROR(MATCH('Input and results'!S8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C7" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>IF('Input and results'!G9&lt;&gt;"",'Input and results'!G9,"")</f>
+        <v/>
+      </c>
+      <c r="F7">
+        <f>IFERROR(MATCH('Input and results'!H9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>IFERROR(MATCH('Input and results'!I9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>IFERROR(MATCH('Input and results'!J9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>IFERROR(MATCH('Input and results'!K9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>IFERROR(MATCH('Input and results'!L9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>IFERROR(MATCH('Input and results'!M9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>IFERROR(MATCH('Input and results'!N9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>IFERROR(MATCH('Input and results'!O9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>IFERROR(MATCH('Input and results'!P9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>IFERROR(MATCH('Input and results'!Q9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>IFERROR(MATCH('Input and results'!R9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>IFERROR(MATCH('Input and results'!S9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B8" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C8" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>IF('Input and results'!G10&lt;&gt;"",'Input and results'!G10,"")</f>
+        <v/>
+      </c>
+      <c r="F8">
+        <f>IFERROR(MATCH('Input and results'!H10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>IFERROR(MATCH('Input and results'!I10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>IFERROR(MATCH('Input and results'!J10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>IFERROR(MATCH('Input and results'!K10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>IFERROR(MATCH('Input and results'!L10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>IFERROR(MATCH('Input and results'!M10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>IFERROR(MATCH('Input and results'!N10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>IFERROR(MATCH('Input and results'!O10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>IFERROR(MATCH('Input and results'!P10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>IFERROR(MATCH('Input and results'!Q10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>IFERROR(MATCH('Input and results'!R10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>IFERROR(MATCH('Input and results'!S10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B9" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C9" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>IF('Input and results'!G11&lt;&gt;"",'Input and results'!G11,"")</f>
+        <v/>
+      </c>
+      <c r="F9">
+        <f>IFERROR(MATCH('Input and results'!H11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>IFERROR(MATCH('Input and results'!I11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>IFERROR(MATCH('Input and results'!J11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>IFERROR(MATCH('Input and results'!K11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>IFERROR(MATCH('Input and results'!L11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>IFERROR(MATCH('Input and results'!M11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>IFERROR(MATCH('Input and results'!N11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>IFERROR(MATCH('Input and results'!O11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>IFERROR(MATCH('Input and results'!P11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>IFERROR(MATCH('Input and results'!Q11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>IFERROR(MATCH('Input and results'!R11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>IFERROR(MATCH('Input and results'!S11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B10" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C10" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>IF('Input and results'!G12&lt;&gt;"",'Input and results'!G12,"")</f>
+        <v/>
+      </c>
+      <c r="F10">
+        <f>IFERROR(MATCH('Input and results'!H12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>IFERROR(MATCH('Input and results'!I12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>IFERROR(MATCH('Input and results'!J12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>IFERROR(MATCH('Input and results'!K12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>IFERROR(MATCH('Input and results'!L12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>IFERROR(MATCH('Input and results'!M12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>IFERROR(MATCH('Input and results'!N12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>IFERROR(MATCH('Input and results'!O12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>IFERROR(MATCH('Input and results'!P12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>IFERROR(MATCH('Input and results'!Q12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>IFERROR(MATCH('Input and results'!R12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>IFERROR(MATCH('Input and results'!S12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B11" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C11" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>IF('Input and results'!G13&lt;&gt;"",'Input and results'!G13,"")</f>
+        <v/>
+      </c>
+      <c r="F11">
+        <f>IFERROR(MATCH('Input and results'!H13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>IFERROR(MATCH('Input and results'!I13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>IFERROR(MATCH('Input and results'!J13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>IFERROR(MATCH('Input and results'!K13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>IFERROR(MATCH('Input and results'!L13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>IFERROR(MATCH('Input and results'!M13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>IFERROR(MATCH('Input and results'!N13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>IFERROR(MATCH('Input and results'!O13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>IFERROR(MATCH('Input and results'!P13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>IFERROR(MATCH('Input and results'!Q13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>IFERROR(MATCH('Input and results'!R13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>IFERROR(MATCH('Input and results'!S13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B12" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C12" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>IF('Input and results'!G14&lt;&gt;"",'Input and results'!G14,"")</f>
+        <v/>
+      </c>
+      <c r="F12">
+        <f>IFERROR(MATCH('Input and results'!H14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>IFERROR(MATCH('Input and results'!I14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>IFERROR(MATCH('Input and results'!J14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>IFERROR(MATCH('Input and results'!K14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>IFERROR(MATCH('Input and results'!L14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>IFERROR(MATCH('Input and results'!M14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>IFERROR(MATCH('Input and results'!N14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>IFERROR(MATCH('Input and results'!O14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>IFERROR(MATCH('Input and results'!P14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>IFERROR(MATCH('Input and results'!Q14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>IFERROR(MATCH('Input and results'!R14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>IFERROR(MATCH('Input and results'!S14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B13" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C13" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>IF('Input and results'!G15&lt;&gt;"",'Input and results'!G15,"")</f>
+        <v/>
+      </c>
+      <c r="F13">
+        <f>IFERROR(MATCH('Input and results'!H15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>IFERROR(MATCH('Input and results'!I15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>IFERROR(MATCH('Input and results'!J15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>IFERROR(MATCH('Input and results'!K15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>IFERROR(MATCH('Input and results'!L15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>IFERROR(MATCH('Input and results'!M15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>IFERROR(MATCH('Input and results'!N15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>IFERROR(MATCH('Input and results'!O15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>IFERROR(MATCH('Input and results'!P15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>IFERROR(MATCH('Input and results'!Q15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>IFERROR(MATCH('Input and results'!R15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f>IFERROR(MATCH('Input and results'!S15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B14" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C14" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>IF('Input and results'!G16&lt;&gt;"",'Input and results'!G16,"")</f>
+        <v/>
+      </c>
+      <c r="F14">
+        <f>IFERROR(MATCH('Input and results'!H16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>IFERROR(MATCH('Input and results'!I16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>IFERROR(MATCH('Input and results'!J16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>IFERROR(MATCH('Input and results'!K16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>IFERROR(MATCH('Input and results'!L16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>IFERROR(MATCH('Input and results'!M16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>IFERROR(MATCH('Input and results'!N16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>IFERROR(MATCH('Input and results'!O16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>IFERROR(MATCH('Input and results'!P16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>IFERROR(MATCH('Input and results'!Q16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>IFERROR(MATCH('Input and results'!R16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>IFERROR(MATCH('Input and results'!S16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B15" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C15" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>IF('Input and results'!G17&lt;&gt;"",'Input and results'!G17,"")</f>
+        <v/>
+      </c>
+      <c r="F15">
+        <f>IFERROR(MATCH('Input and results'!H17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>IFERROR(MATCH('Input and results'!I17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>IFERROR(MATCH('Input and results'!J17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>IFERROR(MATCH('Input and results'!K17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>IFERROR(MATCH('Input and results'!L17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>IFERROR(MATCH('Input and results'!M17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>IFERROR(MATCH('Input and results'!N17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>IFERROR(MATCH('Input and results'!O17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>IFERROR(MATCH('Input and results'!P17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>IFERROR(MATCH('Input and results'!Q17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>IFERROR(MATCH('Input and results'!R17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>IFERROR(MATCH('Input and results'!S17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B16" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C16" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>IF('Input and results'!G18&lt;&gt;"",'Input and results'!G18,"")</f>
+        <v/>
+      </c>
+      <c r="F16">
+        <f>IFERROR(MATCH('Input and results'!H18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>IFERROR(MATCH('Input and results'!I18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>IFERROR(MATCH('Input and results'!J18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>IFERROR(MATCH('Input and results'!K18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>IFERROR(MATCH('Input and results'!L18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>IFERROR(MATCH('Input and results'!M18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>IFERROR(MATCH('Input and results'!N18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>IFERROR(MATCH('Input and results'!O18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>IFERROR(MATCH('Input and results'!P18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>IFERROR(MATCH('Input and results'!Q18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>IFERROR(MATCH('Input and results'!R18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>IFERROR(MATCH('Input and results'!S18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B17" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C17" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>IF('Input and results'!G19&lt;&gt;"",'Input and results'!G19,"")</f>
+        <v/>
+      </c>
+      <c r="F17">
+        <f>IFERROR(MATCH('Input and results'!H19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>IFERROR(MATCH('Input and results'!I19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>IFERROR(MATCH('Input and results'!J19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>IFERROR(MATCH('Input and results'!K19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>IFERROR(MATCH('Input and results'!L19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>IFERROR(MATCH('Input and results'!M19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>IFERROR(MATCH('Input and results'!N19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>IFERROR(MATCH('Input and results'!O19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>IFERROR(MATCH('Input and results'!P19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>IFERROR(MATCH('Input and results'!Q19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>IFERROR(MATCH('Input and results'!R19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f>IFERROR(MATCH('Input and results'!S19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B18" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C18" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>IF('Input and results'!G20&lt;&gt;"",'Input and results'!G20,"")</f>
+        <v/>
+      </c>
+      <c r="F18">
+        <f>IFERROR(MATCH('Input and results'!H20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>IFERROR(MATCH('Input and results'!I20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>IFERROR(MATCH('Input and results'!J20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>IFERROR(MATCH('Input and results'!K20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>IFERROR(MATCH('Input and results'!L20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>IFERROR(MATCH('Input and results'!M20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>IFERROR(MATCH('Input and results'!N20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>IFERROR(MATCH('Input and results'!O20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>IFERROR(MATCH('Input and results'!P20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>IFERROR(MATCH('Input and results'!Q20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>IFERROR(MATCH('Input and results'!R20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>IFERROR(MATCH('Input and results'!S20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="R2:R18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:Q18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{F6D905C7-65AA-46BA-9558-11CFFD766408}">
+            <x14:iconSet iconSet="4TrafficLights" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>A2:D18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{63833039-BAE7-46BF-9F45-5CAAD3F4E760}">
+            <x14:iconSet iconSet="4TrafficLights" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E1</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Spreadsheets/Capability Matrix v2.xlsx
+++ b/Spreadsheets/Capability Matrix v2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\troym\Dropbox\Private\GitHub\FocusedObjective.Resources\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD16792-C9C5-412F-A3AF-669B07123158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16455" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="6" r:id="rId1"/>
@@ -25,10 +26,16 @@
     <definedName name="Skills_Header" localSheetId="7">Settings!#REF!</definedName>
     <definedName name="Skills_Header">Settings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
   <si>
     <t>Strongly Interested</t>
   </si>
@@ -89,9 +96,6 @@
   </si>
   <si>
     <t>People / Teams</t>
-  </si>
-  <si>
-    <t>Skills and Expertise</t>
   </si>
   <si>
     <t>Current Knowledge Levels</t>
@@ -289,25 +293,10 @@
     <t>Enter survey results in this table. Pick the value from the drop-down in each cell.</t>
   </si>
   <si>
-    <t>Your Name (optional)</t>
-  </si>
-  <si>
     <t>Made input vertical to match survey sheet and put results on the same page</t>
   </si>
   <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
     <t>For planning ideas and advice on building stable teams, see this sheet.</t>
-  </si>
-  <si>
-    <t>Some people use a 1 to 5 rating for this.</t>
-  </si>
-  <si>
-    <t>You are trying t find who can teach others, NOT raw talent.</t>
   </si>
   <si>
     <t>Advice: Pick skills that you need to deliver as a team. Think of skills that</t>
@@ -319,9 +308,6 @@
     <t>impressing everyone with all things people CAN do.</t>
   </si>
   <si>
-    <t>Skill Need for Project</t>
-  </si>
-  <si>
     <t>Not needed</t>
   </si>
   <si>
@@ -331,41 +317,112 @@
     <t>Moderate need (often)</t>
   </si>
   <si>
-    <t>Heavy need (consistently needed)</t>
-  </si>
-  <si>
-    <t>Critical (immediate availability needed)</t>
-  </si>
-  <si>
     <t>Capabilities</t>
   </si>
   <si>
     <t>Needs</t>
   </si>
   <si>
-    <t>Projects / Features</t>
-  </si>
-  <si>
-    <t>Project 1</t>
-  </si>
-  <si>
-    <t>Project 2</t>
-  </si>
-  <si>
-    <t>Fature 1</t>
-  </si>
-  <si>
     <t>Enter what amount of each skill is needed for the projects</t>
   </si>
   <si>
-    <t>xxx</t>
+    <t>Future Need</t>
+  </si>
+  <si>
+    <t>Critical (immediate response needed)</t>
+  </si>
+  <si>
+    <t>Heavy need (always)</t>
+  </si>
+  <si>
+    <t>Anticipated</t>
+  </si>
+  <si>
+    <t>Training Lead Time</t>
+  </si>
+  <si>
+    <t>Novice to Doer (months)</t>
+  </si>
+  <si>
+    <t>Inputs - Enter your survey data here</t>
+  </si>
+  <si>
+    <t>Analysis - Heatmap Scorecard</t>
+  </si>
+  <si>
+    <t>NOTE: Only edit cells that are</t>
+  </si>
+  <si>
+    <t>All others are calculations.</t>
+  </si>
+  <si>
+    <t>Least</t>
+  </si>
+  <si>
+    <t>Skill Risk</t>
+  </si>
+  <si>
+    <t>(lower is worse)</t>
+  </si>
+  <si>
+    <t>Risk  Legend</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Teachers get 4 pts, Creators 3 pts, Bug fixers, 2 pts, Novices 1 point.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the risk score? It is the sum of people </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> their skill levels. </t>
+    </r>
+  </si>
+  <si>
+    <t>How many people do we have at each level</t>
+  </si>
+  <si>
+    <t>^^^^^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Discuss and enter the data in these two columns</t>
+  </si>
+  <si>
+    <t>Populate this data from the answers to the survey sheet or as a group</t>
+  </si>
+  <si>
+    <t>Skills or Technology Expertise</t>
+  </si>
+  <si>
+    <t>Skill Future Need Levels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,8 +547,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +642,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +781,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -818,6 +889,9 @@
     <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -836,6 +910,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -848,7 +935,48 @@
     <cellStyle name="Output" xfId="1" builtinId="21"/>
     <cellStyle name="Title" xfId="8" builtinId="15"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1679,12 +1807,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -1709,7 +1837,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -1753,16 +1884,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428081</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>5714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2449830</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1777,14 +1908,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3566160" y="53340"/>
-          <a:ext cx="3284220" cy="472440"/>
+          <a:off x="9510849" y="5714"/>
+          <a:ext cx="2450374" cy="654231"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -1892,7 +2026,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -1926,7 +2063,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> team members if assessing a team, or the team names if assessing organizations count as resources with ability to perform a skill or task. 12 max (unless you expand the spreadsheet). Consider making the survey anonymous for more honest data.</a:t>
+            <a:t> team members if assessing a team, or the team names if assessing organizations. Consider making the survey anonymous for more honest individual data.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1967,7 +2104,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -2002,6 +2142,84 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> expertise, or tasks to assess capability of people/teams. 17 max (unless you expand the spreadsheet.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131173</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028D3ACE-B3DF-4AF4-A617-6ECDAF3F28B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8588013" y="2272393"/>
+          <a:ext cx="2798445" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>List the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> levels of skillet future need. This will be used as context to decide how severe a deficit in skillset might be.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -13328,7 +13546,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>Teach &amp; Create</a:t>
+            <a:t>Teach &amp; Create solo</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -13341,7 +13559,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>Do &amp; Maintain</a:t>
+            <a:t>Do &amp; Maintain with help</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -13655,7 +13873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:Q23"/>
   <sheetViews>
@@ -13666,25 +13884,25 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="B1" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="P2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -13692,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -13700,7 +13918,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -13708,7 +13926,7 @@
         <v>1.2</v>
       </c>
       <c r="Q6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -13716,7 +13934,7 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -13778,218 +13996,181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B5:K29"/>
+  <dimension ref="B5:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" customWidth="1"/>
-    <col min="9" max="9" width="48.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>106</v>
-      </c>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
       <c r="D9" s="16"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="D10" s="16"/>
-      <c r="G10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="16" t="s">
+      <c r="F10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="D13" s="16"/>
-      <c r="G13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="D14" s="16"/>
-      <c r="G14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="D17" s="16"/>
-      <c r="G17" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D18" s="16"/>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="16"/>
+      <c r="F21" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="16"/>
+      <c r="F22" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="G19" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="G20" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="G21" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="G22" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13999,12 +14180,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14018,14 +14199,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="A1" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -14034,11 +14215,9 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -14050,23 +14229,23 @@
     </row>
     <row r="7" spans="1:6" s="13" customFormat="1" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="str">
-        <f>Settings!$G$6</f>
+        <f>Settings!$F$6</f>
         <v>Know nothing</v>
       </c>
       <c r="C7" s="14" t="str">
-        <f>Settings!$G$7</f>
+        <f>Settings!$F$7</f>
         <v>Can run and use the tools needed</v>
       </c>
       <c r="D7" s="14" t="str">
-        <f>Settings!$G$8</f>
+        <f>Settings!$F$8</f>
         <v>Can tweak it or do easy bug fixes</v>
       </c>
       <c r="E7" s="14" t="str">
-        <f>Settings!$G$9</f>
+        <f>Settings!$F$9</f>
         <v>Can start from nothing and create</v>
       </c>
       <c r="F7" s="14" t="str">
-        <f>Settings!$G$10</f>
+        <f>Settings!$F$10</f>
         <v>Can teach others</v>
       </c>
     </row>
@@ -14265,23 +14444,23 @@
     <row r="27" spans="1:6" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="14" t="str">
-        <f>Settings!$I$6</f>
+        <f>Settings!$H$6</f>
         <v>I'd quit rather than do this…</v>
       </c>
       <c r="C27" s="14" t="str">
-        <f>Settings!$I$7</f>
+        <f>Settings!$H$7</f>
         <v>Actively Avoid, unless coerced…</v>
       </c>
       <c r="D27" s="14" t="str">
-        <f>Settings!$I$8</f>
+        <f>Settings!$H$8</f>
         <v>Willing to learn</v>
       </c>
       <c r="E27" s="14" t="str">
-        <f>Settings!$I$9</f>
+        <f>Settings!$H$9</f>
         <v>Strongly Interested</v>
       </c>
       <c r="F27" s="14" t="str">
-        <f>Settings!$I$10</f>
+        <f>Settings!$H$10</f>
         <v>Please, Please, Please…</v>
       </c>
     </row>
@@ -14477,8 +14656,8 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="STOP!" prompt="Change these titles in the Settings worksheet. Editing them here will not change the titles everywhere." sqref="B7:F7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="STOP!" prompt="Please edit these in the Setting worksheet." sqref="A8:A24"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="STOP!" prompt="Change these titles in the Settings worksheet. Editing them here will not change the titles everywhere." sqref="B7:F7" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="STOP!" prompt="Please edit these in the Setting worksheet." sqref="A8:A24" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14487,54 +14666,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="15" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="38" customWidth="1"/>
     <col min="4" max="4" width="17" style="38" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="31" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
-    <col min="10" max="10" width="33" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="38" customWidth="1"/>
+    <col min="6" max="7" width="25.5703125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="26" style="4" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" customWidth="1"/>
+    <col min="12" max="12" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+        <v>74</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+        <v>104</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="I2" s="44" t="s">
+        <v>81</v>
+      </c>
       <c r="J2" s="48"/>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
@@ -14545,79 +14729,85 @@
       <c r="Q2" s="48"/>
       <c r="R2" s="48"/>
       <c r="S2" s="48"/>
-    </row>
-    <row r="3" spans="1:19" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>81</v>
-      </c>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+    </row>
+    <row r="3" spans="1:21" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
       <c r="B3" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3"/>
+        <v>105</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>93</v>
+      </c>
       <c r="G3" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="46" t="str">
+        <v>98</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B6),"",Settings!$B6)</f>
         <v>Person 1</v>
       </c>
-      <c r="I3" s="46" t="str">
+      <c r="K3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B7),"",Settings!$B7)</f>
         <v>Person 2</v>
       </c>
-      <c r="J3" s="46" t="str">
+      <c r="L3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B8),"",Settings!$B8)</f>
         <v>Team 1</v>
       </c>
-      <c r="K3" s="46" t="str">
+      <c r="M3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B9),"",Settings!$B9)</f>
-        <v>xxx</v>
-      </c>
-      <c r="L3" s="46" t="str">
+        <v/>
+      </c>
+      <c r="N3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B10),"",Settings!$B10)</f>
         <v/>
       </c>
-      <c r="M3" s="46" t="str">
+      <c r="O3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B11),"",Settings!$B11)</f>
         <v/>
       </c>
-      <c r="N3" s="46" t="str">
+      <c r="P3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B12),"",Settings!$B12)</f>
         <v/>
       </c>
-      <c r="O3" s="46" t="str">
+      <c r="Q3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B13),"",Settings!$B13)</f>
         <v/>
       </c>
-      <c r="P3" s="46" t="str">
+      <c r="R3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B14),"",Settings!$B14)</f>
         <v/>
       </c>
-      <c r="Q3" s="46" t="str">
+      <c r="S3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B15),"",Settings!$B15)</f>
         <v/>
       </c>
-      <c r="R3" s="46" t="str">
+      <c r="T3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B16),"",Settings!$B16)</f>
         <v/>
       </c>
-      <c r="S3" s="46" t="str">
+      <c r="U3" s="46" t="str">
         <f>IF(ISBLANK(Settings!$B17),"",Settings!$B17)</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="str">
-        <f>G4</f>
+        <f>I4</f>
         <v>CSS</v>
       </c>
       <c r="B4" s="19">
@@ -14632,26 +14822,30 @@
         <f>Calculations!C2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="64">
         <f>Calculations!R2</f>
         <v>2</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" s="41" t="str">
+      <c r="F4" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="16">
+        <v>3</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" s="41" t="str">
         <f>IF(ISBLANK(Settings!D6),"",Settings!D6)</f>
         <v>CSS</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="J4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
@@ -14659,10 +14853,12 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="str">
-        <f t="shared" ref="A5:A20" si="0">G5</f>
+        <f t="shared" ref="A5:A20" si="0">I5</f>
         <v>Javascript</v>
       </c>
       <c r="B5" s="19">
@@ -14677,26 +14873,30 @@
         <f>Calculations!C3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="64">
         <f>Calculations!R3</f>
         <v>7</v>
       </c>
-      <c r="F5"/>
-      <c r="G5" s="41" t="str">
+      <c r="F5" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" s="41" t="str">
         <f>IF(ISBLANK(Settings!D7),"",Settings!D7)</f>
         <v>Javascript</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="J5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -14704,8 +14904,10 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f t="shared" si="0"/>
         <v>DB Backup/Restore</v>
@@ -14722,26 +14924,30 @@
         <f>Calculations!C4</f>
         <v>1</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="64">
         <f>Calculations!R4</f>
         <v>6</v>
       </c>
-      <c r="F6"/>
-      <c r="G6" s="41" t="str">
+      <c r="F6" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" s="41" t="str">
         <f>IF(ISBLANK(Settings!D8),"",Settings!D8)</f>
         <v>DB Backup/Restore</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="J6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="K6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="L6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -14749,8 +14955,10 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14767,17 +14975,17 @@
         <f>Calculations!C5</f>
         <v/>
       </c>
-      <c r="E7" s="40" t="str">
+      <c r="E7" s="64" t="str">
         <f>Calculations!R5</f>
         <v/>
       </c>
-      <c r="F7"/>
-      <c r="G7" s="41" t="str">
+      <c r="F7" s="63"/>
+      <c r="G7" s="16"/>
+      <c r="H7"/>
+      <c r="I7" s="41" t="str">
         <f>IF(ISBLANK(Settings!D9),"",Settings!D9)</f>
         <v/>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
@@ -14788,8 +14996,10 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14806,17 +15016,17 @@
         <f>Calculations!C6</f>
         <v/>
       </c>
-      <c r="E8" s="40" t="str">
+      <c r="E8" s="64" t="str">
         <f>Calculations!R6</f>
         <v/>
       </c>
-      <c r="F8"/>
-      <c r="G8" s="41" t="str">
+      <c r="F8" s="63"/>
+      <c r="G8" s="16"/>
+      <c r="H8"/>
+      <c r="I8" s="41" t="str">
         <f>IF(ISBLANK(Settings!D10),"",Settings!D10)</f>
         <v/>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
@@ -14827,8 +15037,10 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14845,17 +15057,17 @@
         <f>Calculations!C7</f>
         <v/>
       </c>
-      <c r="E9" s="40" t="str">
+      <c r="E9" s="64" t="str">
         <f>Calculations!R7</f>
         <v/>
       </c>
-      <c r="F9"/>
-      <c r="G9" s="41" t="str">
+      <c r="F9" s="63"/>
+      <c r="G9" s="16"/>
+      <c r="H9"/>
+      <c r="I9" s="41" t="str">
         <f>IF(ISBLANK(Settings!D11),"",Settings!D11)</f>
         <v/>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -14866,8 +15078,10 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14884,17 +15098,17 @@
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E10" s="40" t="str">
+      <c r="E10" s="64" t="str">
         <f>Calculations!R8</f>
         <v/>
       </c>
-      <c r="F10"/>
-      <c r="G10" s="41" t="str">
+      <c r="F10" s="63"/>
+      <c r="G10" s="16"/>
+      <c r="H10"/>
+      <c r="I10" s="41" t="str">
         <f>IF(ISBLANK(Settings!D12),"",Settings!D12)</f>
         <v/>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
@@ -14905,8 +15119,10 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14923,17 +15139,17 @@
         <f>Calculations!C9</f>
         <v/>
       </c>
-      <c r="E11" s="40" t="str">
+      <c r="E11" s="64" t="str">
         <f>Calculations!R9</f>
         <v/>
       </c>
-      <c r="F11"/>
-      <c r="G11" s="41" t="str">
+      <c r="F11" s="63"/>
+      <c r="G11" s="16"/>
+      <c r="H11"/>
+      <c r="I11" s="41" t="str">
         <f>IF(ISBLANK(Settings!D13),"",Settings!D13)</f>
         <v/>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
@@ -14944,8 +15160,10 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14962,17 +15180,17 @@
         <f>Calculations!C10</f>
         <v/>
       </c>
-      <c r="E12" s="40" t="str">
+      <c r="E12" s="64" t="str">
         <f>Calculations!R10</f>
         <v/>
       </c>
-      <c r="F12"/>
-      <c r="G12" s="41" t="str">
+      <c r="F12" s="63"/>
+      <c r="G12" s="16"/>
+      <c r="H12"/>
+      <c r="I12" s="41" t="str">
         <f>IF(ISBLANK(Settings!D14),"",Settings!D14)</f>
         <v/>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -14983,8 +15201,10 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15001,17 +15221,17 @@
         <f>Calculations!C11</f>
         <v/>
       </c>
-      <c r="E13" s="40" t="str">
+      <c r="E13" s="64" t="str">
         <f>Calculations!R11</f>
         <v/>
       </c>
-      <c r="F13"/>
-      <c r="G13" s="41" t="str">
+      <c r="F13" s="63"/>
+      <c r="G13" s="16"/>
+      <c r="H13"/>
+      <c r="I13" s="41" t="str">
         <f>IF(ISBLANK(Settings!D15),"",Settings!D15)</f>
         <v/>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
@@ -15022,8 +15242,10 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15040,17 +15262,17 @@
         <f>Calculations!C12</f>
         <v/>
       </c>
-      <c r="E14" s="40" t="str">
+      <c r="E14" s="64" t="str">
         <f>Calculations!R12</f>
         <v/>
       </c>
-      <c r="F14"/>
-      <c r="G14" s="41" t="str">
+      <c r="F14" s="63"/>
+      <c r="G14" s="16"/>
+      <c r="H14"/>
+      <c r="I14" s="41" t="str">
         <f>IF(ISBLANK(Settings!D16),"",Settings!D16)</f>
         <v/>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
@@ -15061,8 +15283,10 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15079,17 +15303,17 @@
         <f>Calculations!C13</f>
         <v/>
       </c>
-      <c r="E15" s="40" t="str">
+      <c r="E15" s="64" t="str">
         <f>Calculations!R13</f>
         <v/>
       </c>
-      <c r="F15"/>
-      <c r="G15" s="41" t="str">
+      <c r="F15" s="63"/>
+      <c r="G15" s="16"/>
+      <c r="H15"/>
+      <c r="I15" s="41" t="str">
         <f>IF(ISBLANK(Settings!D17),"",Settings!D17)</f>
         <v/>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -15100,8 +15324,10 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15118,17 +15344,17 @@
         <f>Calculations!C14</f>
         <v/>
       </c>
-      <c r="E16" s="40" t="str">
+      <c r="E16" s="64" t="str">
         <f>Calculations!R14</f>
         <v/>
       </c>
-      <c r="F16"/>
-      <c r="G16" s="41" t="str">
+      <c r="F16" s="63"/>
+      <c r="G16" s="16"/>
+      <c r="H16"/>
+      <c r="I16" s="41" t="str">
         <f>IF(ISBLANK(Settings!D18),"",Settings!D18)</f>
         <v/>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -15139,8 +15365,10 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15157,17 +15385,17 @@
         <f>Calculations!C15</f>
         <v/>
       </c>
-      <c r="E17" s="40" t="str">
+      <c r="E17" s="64" t="str">
         <f>Calculations!R15</f>
         <v/>
       </c>
-      <c r="F17"/>
-      <c r="G17" s="41" t="str">
+      <c r="F17" s="63"/>
+      <c r="G17" s="16"/>
+      <c r="H17"/>
+      <c r="I17" s="41" t="str">
         <f>IF(ISBLANK(Settings!D19),"",Settings!D19)</f>
         <v/>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -15178,8 +15406,10 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15196,17 +15426,17 @@
         <f>Calculations!C16</f>
         <v/>
       </c>
-      <c r="E18" s="40" t="str">
+      <c r="E18" s="64" t="str">
         <f>Calculations!R16</f>
         <v/>
       </c>
-      <c r="F18"/>
-      <c r="G18" s="41" t="str">
+      <c r="F18" s="63"/>
+      <c r="G18" s="16"/>
+      <c r="H18"/>
+      <c r="I18" s="41" t="str">
         <f>IF(ISBLANK(Settings!D20),"",Settings!D20)</f>
         <v/>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
@@ -15217,8 +15447,10 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15235,17 +15467,17 @@
         <f>Calculations!C17</f>
         <v/>
       </c>
-      <c r="E19" s="40" t="str">
+      <c r="E19" s="64" t="str">
         <f>Calculations!R17</f>
         <v/>
       </c>
-      <c r="F19"/>
-      <c r="G19" s="41" t="str">
+      <c r="F19" s="63"/>
+      <c r="G19" s="16"/>
+      <c r="H19"/>
+      <c r="I19" s="41" t="str">
         <f>IF(ISBLANK(Settings!D21),"",Settings!D21)</f>
         <v/>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -15256,8 +15488,10 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15274,17 +15508,17 @@
         <f>Calculations!C18</f>
         <v/>
       </c>
-      <c r="E20" s="40" t="str">
+      <c r="E20" s="64" t="str">
         <f>Calculations!R18</f>
         <v/>
       </c>
-      <c r="F20"/>
-      <c r="G20" s="41" t="str">
+      <c r="F20" s="63"/>
+      <c r="G20" s="16"/>
+      <c r="H20"/>
+      <c r="I20" s="41" t="str">
         <f>IF(ISBLANK(Settings!D22),"",Settings!D22)</f>
         <v/>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
@@ -15295,99 +15529,169 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F21"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E23" s="4" t="s">
-        <v>80</v>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F21" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21"/>
+      <c r="J21" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F22" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E23" s="61" t="s">
+        <v>106</v>
       </c>
       <c r="F23"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E24" s="37">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E25" s="37">
+      <c r="G23"/>
+      <c r="H23" s="4"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E24" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E25" s="60">
+        <f>MIN(E4:E20)</f>
         <v>2</v>
       </c>
       <c r="F25"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E26" s="37">
-        <v>3</v>
+      <c r="G25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E26" s="60">
+        <f>E25+((MAX(E$4:E$20)-MIN(E$4:E$20))/4)</f>
+        <v>3.25</v>
       </c>
       <c r="F26"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E27" s="37">
-        <v>4</v>
+      <c r="G26" s="16"/>
+      <c r="H26" s="4"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E27" s="60">
+        <f t="shared" ref="E27:E29" si="1">E26+((MAX(E$4:E$20)-MIN(E$4:E$20))/4)</f>
+        <v>4.5</v>
       </c>
       <c r="F27"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E28" s="37">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E28" s="60">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E29" s="60">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30"/>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E31" s="51" t="s">
-        <v>87</v>
-      </c>
+      <c r="E30" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E32" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E36" s="51" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E20">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E4:F20">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color theme="4"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E28">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E25:E29">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E31" location="'Planning and Stabilizing Teams'!A1" display="For goals and planning ideas, see this sheet."/>
+    <hyperlink ref="E36" location="'Planning and Stabilizing Teams'!A1" display="For goals and planning ideas, see this sheet." xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15396,7 +15700,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{2136DFF7-0735-F945-8B69-8AA8295639A9}">
+          <x14:cfRule type="iconSet" priority="12" id="{2136DFF7-0735-F945-8B69-8AA8295639A9}">
             <x14:iconSet iconSet="4TrafficLights" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15411,22 +15715,83 @@
                 <xm:f>2</xm:f>
               </x14:cfvo>
               <x14:cfIcon iconSet="4RedToBlack" iconId="1"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>B4:D20</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0C8C7F1C-486E-4782-9E38-9567E07A51A1}">
+            <xm:f>Settings!$F$19</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="3"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{CFC5D812-09CC-4075-BA53-A7E9EC131A95}">
+            <xm:f>Settings!$F$20</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{9C751E16-2C76-4EE9-A8FF-3338D6F06887}">
+            <xm:f>Settings!$F$21</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{5F73774C-53E9-4619-9F3A-C94F275AE90B}">
+            <xm:f>Settings!$F$22</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F4:F20</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Please choose from the drop-down" error="Only values from the list are acceptable. ">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Please choose from the drop-down" error="Only values from the list are acceptable. " xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
-            <xm:f>Settings!$G$6:$G$10</xm:f>
+            <xm:f>Settings!$F$6:$F$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:S20</xm:sqref>
+          <xm:sqref>J4:U20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{069F4BEE-B187-4D84-AD77-09F5321B3114}">
+          <x14:formula1>
+            <xm:f>Settings!$F$18:$F$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>F4:F20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15435,7 +15800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15455,7 +15820,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -15465,88 +15830,88 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
       <c r="I1" s="50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
       <c r="I2" s="44" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J2" s="48"/>
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="46" t="str">
-        <f>IF(ISBLANK(Settings!$B20),"",Settings!$B20)</f>
-        <v>Project 1</v>
-      </c>
-      <c r="K3" s="46" t="str">
-        <f>IF(ISBLANK(Settings!$B21),"",Settings!$B21)</f>
-        <v>Project 2</v>
-      </c>
-      <c r="L3" s="46" t="str">
-        <f>IF(ISBLANK(Settings!$B22),"",Settings!$B22)</f>
-        <v>Fature 1</v>
-      </c>
-      <c r="M3" s="46" t="str">
-        <f>IF(ISBLANK(Settings!$B23),"",Settings!$B23)</f>
-        <v/>
-      </c>
-      <c r="N3" s="46" t="str">
-        <f>IF(ISBLANK(Settings!$B24),"",Settings!$B24)</f>
-        <v/>
-      </c>
-      <c r="O3" s="46" t="str">
-        <f>IF(ISBLANK(Settings!$B25),"",Settings!$B25)</f>
-        <v/>
-      </c>
-      <c r="P3" s="46" t="str">
-        <f>IF(ISBLANK(Settings!$B26),"",Settings!$B26)</f>
-        <v/>
-      </c>
-      <c r="Q3" s="46" t="str">
-        <f>IF(ISBLANK(Settings!$B27),"",Settings!$B27)</f>
-        <v/>
-      </c>
-      <c r="R3" s="46" t="str">
-        <f>IF(ISBLANK(Settings!$B28),"",Settings!$B28)</f>
-        <v/>
-      </c>
-      <c r="S3" s="46" t="str">
-        <f>IF(ISBLANK(Settings!$B29),"",Settings!$B29)</f>
-        <v/>
+        <v>74</v>
+      </c>
+      <c r="J3" s="46" t="e">
+        <f>IF(ISBLANK(Settings!#REF!),"",Settings!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K3" s="46" t="e">
+        <f>IF(ISBLANK(Settings!#REF!),"",Settings!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L3" s="46" t="e">
+        <f>IF(ISBLANK(Settings!#REF!),"",Settings!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M3" s="46" t="e">
+        <f>IF(ISBLANK(Settings!#REF!),"",Settings!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N3" s="46" t="e">
+        <f>IF(ISBLANK(Settings!#REF!),"",Settings!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O3" s="46" t="e">
+        <f>IF(ISBLANK(Settings!#REF!),"",Settings!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P3" s="46" t="e">
+        <f>IF(ISBLANK(Settings!#REF!),"",Settings!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q3" s="46" t="e">
+        <f>IF(ISBLANK(Settings!#REF!),"",Settings!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R3" s="46" t="e">
+        <f>IF(ISBLANK(Settings!#REF!),"",Settings!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S3" s="46" t="e">
+        <f>IF(ISBLANK(Settings!#REF!),"",Settings!#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -16186,7 +16551,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -16199,7 +16564,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="4"/>
     </row>
@@ -16242,7 +16607,7 @@
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28" s="4"/>
     </row>
@@ -16316,9 +16681,9 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Please choose from the drop-down" error="Only values from the list are acceptable. ">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Please choose from the drop-down" error="Only values from the list are acceptable. " xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
-            <xm:f>Settings!$G$18:$G$22</xm:f>
+            <xm:f>Settings!$F$18:$F$22</xm:f>
           </x14:formula1>
           <xm:sqref>J4:S20</xm:sqref>
         </x14:dataValidation>
@@ -16329,16 +16694,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -16352,31 +16719,31 @@
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
-      <c r="B5" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="G5" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="22">
         <v>0</v>
@@ -16385,10 +16752,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="21">
         <v>0</v>
@@ -16397,7 +16764,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -16454,7 +16821,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3">
         <v>6</v>
@@ -16466,7 +16833,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="3">
         <v>6</v>
@@ -16480,112 +16847,112 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -16599,25 +16966,25 @@
     <row r="36" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="21">
         <v>0</v>
@@ -16626,7 +16993,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -16666,7 +17033,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="34">
         <v>6</v>
@@ -16680,57 +17047,57 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -16768,11 +17135,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16787,65 +17154,65 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="D1" s="1"/>
       <c r="F1" s="4" t="str">
-        <f>'Input and results'!H3</f>
+        <f>'Input and results'!J3</f>
         <v>Person 1</v>
       </c>
       <c r="G1" s="4" t="str">
-        <f>'Input and results'!I3</f>
+        <f>'Input and results'!K3</f>
         <v>Person 2</v>
       </c>
       <c r="H1" s="4" t="str">
-        <f>'Input and results'!J3</f>
+        <f>'Input and results'!L3</f>
         <v>Team 1</v>
       </c>
       <c r="I1" s="4" t="str">
-        <f>'Input and results'!K3</f>
-        <v>xxx</v>
+        <f>'Input and results'!M3</f>
+        <v/>
       </c>
       <c r="J1" s="4" t="str">
-        <f>'Input and results'!L3</f>
+        <f>'Input and results'!N3</f>
         <v/>
       </c>
       <c r="K1" s="4" t="str">
-        <f>'Input and results'!M3</f>
+        <f>'Input and results'!O3</f>
         <v/>
       </c>
       <c r="L1" s="4" t="str">
-        <f>'Input and results'!N3</f>
+        <f>'Input and results'!P3</f>
         <v/>
       </c>
       <c r="M1" s="4" t="str">
-        <f>'Input and results'!O3</f>
+        <f>'Input and results'!Q3</f>
         <v/>
       </c>
       <c r="N1" s="4" t="str">
-        <f>'Input and results'!P3</f>
+        <f>'Input and results'!R3</f>
         <v/>
       </c>
       <c r="O1" s="4" t="str">
-        <f>'Input and results'!Q3</f>
+        <f>'Input and results'!S3</f>
         <v/>
       </c>
       <c r="P1" s="4" t="str">
-        <f>'Input and results'!R3</f>
+        <f>'Input and results'!T3</f>
         <v/>
       </c>
       <c r="Q1" s="4" t="str">
-        <f>'Input and results'!S3</f>
+        <f>'Input and results'!U3</f>
         <v/>
       </c>
       <c r="R1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -16862,55 +17229,55 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>IF('Input and results'!G4&lt;&gt;"",'Input and results'!G4,"")</f>
+        <f>IF('Input and results'!I4&lt;&gt;"",'Input and results'!I4,"")</f>
         <v>CSS</v>
       </c>
       <c r="F2">
-        <f>IFERROR(MATCH('Input and results'!H4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>IFERROR(MATCH('Input and results'!I4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>IFERROR(MATCH('Input and results'!J4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>2</v>
       </c>
       <c r="I2">
-        <f>IFERROR(MATCH('Input and results'!K4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>IFERROR(MATCH('Input and results'!L4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>IFERROR(MATCH('Input and results'!M4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>IFERROR(MATCH('Input and results'!N4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>IFERROR(MATCH('Input and results'!O4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>IFERROR(MATCH('Input and results'!P4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>IFERROR(MATCH('Input and results'!Q4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>IFERROR(MATCH('Input and results'!R4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>IFERROR(MATCH('Input and results'!S4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R2" s="39">
@@ -16932,55 +17299,55 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>IF('Input and results'!G5&lt;&gt;"",'Input and results'!G5,"")</f>
+        <f>IF('Input and results'!I5&lt;&gt;"",'Input and results'!I5,"")</f>
         <v>Javascript</v>
       </c>
       <c r="F3">
-        <f>IFERROR(MATCH('Input and results'!H5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>4</v>
       </c>
       <c r="G3">
-        <f>IFERROR(MATCH('Input and results'!I5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>3</v>
       </c>
       <c r="H3">
-        <f>IFERROR(MATCH('Input and results'!J5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>IFERROR(MATCH('Input and results'!K5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>IFERROR(MATCH('Input and results'!L5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>IFERROR(MATCH('Input and results'!M5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>IFERROR(MATCH('Input and results'!N5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>IFERROR(MATCH('Input and results'!O5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>IFERROR(MATCH('Input and results'!P5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>IFERROR(MATCH('Input and results'!Q5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>IFERROR(MATCH('Input and results'!R5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>IFERROR(MATCH('Input and results'!S5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R3" s="39">
@@ -17002,55 +17369,55 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>IF('Input and results'!G6&lt;&gt;"",'Input and results'!G6,"")</f>
+        <f>IF('Input and results'!I6&lt;&gt;"",'Input and results'!I6,"")</f>
         <v>DB Backup/Restore</v>
       </c>
       <c r="F4">
-        <f>IFERROR(MATCH('Input and results'!H6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f>IFERROR(MATCH('Input and results'!I6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>2</v>
       </c>
       <c r="H4">
-        <f>IFERROR(MATCH('Input and results'!J6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>3</v>
       </c>
       <c r="I4">
-        <f>IFERROR(MATCH('Input and results'!K6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>IFERROR(MATCH('Input and results'!L6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>IFERROR(MATCH('Input and results'!M6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>IFERROR(MATCH('Input and results'!N6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>IFERROR(MATCH('Input and results'!O6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>IFERROR(MATCH('Input and results'!P6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>IFERROR(MATCH('Input and results'!Q6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>IFERROR(MATCH('Input and results'!R6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>IFERROR(MATCH('Input and results'!S6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R4" s="39">
@@ -17072,55 +17439,55 @@
         <v/>
       </c>
       <c r="E5" s="1" t="str">
-        <f>IF('Input and results'!G7&lt;&gt;"",'Input and results'!G7,"")</f>
+        <f>IF('Input and results'!I7&lt;&gt;"",'Input and results'!I7,"")</f>
         <v/>
       </c>
       <c r="F5">
-        <f>IFERROR(MATCH('Input and results'!H7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>IFERROR(MATCH('Input and results'!I7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>IFERROR(MATCH('Input and results'!J7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>IFERROR(MATCH('Input and results'!K7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>IFERROR(MATCH('Input and results'!L7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>IFERROR(MATCH('Input and results'!M7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>IFERROR(MATCH('Input and results'!N7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>IFERROR(MATCH('Input and results'!O7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>IFERROR(MATCH('Input and results'!P7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>IFERROR(MATCH('Input and results'!Q7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>IFERROR(MATCH('Input and results'!R7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>IFERROR(MATCH('Input and results'!S7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R5" s="39" t="str">
@@ -17142,55 +17509,55 @@
         <v/>
       </c>
       <c r="E6" s="1" t="str">
-        <f>IF('Input and results'!G8&lt;&gt;"",'Input and results'!G8,"")</f>
+        <f>IF('Input and results'!I8&lt;&gt;"",'Input and results'!I8,"")</f>
         <v/>
       </c>
       <c r="F6">
-        <f>IFERROR(MATCH('Input and results'!H8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>IFERROR(MATCH('Input and results'!I8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>IFERROR(MATCH('Input and results'!J8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>IFERROR(MATCH('Input and results'!K8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>IFERROR(MATCH('Input and results'!L8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>IFERROR(MATCH('Input and results'!M8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>IFERROR(MATCH('Input and results'!N8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>IFERROR(MATCH('Input and results'!O8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>IFERROR(MATCH('Input and results'!P8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>IFERROR(MATCH('Input and results'!Q8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>IFERROR(MATCH('Input and results'!R8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>IFERROR(MATCH('Input and results'!S8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R6" s="39" t="str">
@@ -17212,55 +17579,55 @@
         <v/>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IF('Input and results'!G9&lt;&gt;"",'Input and results'!G9,"")</f>
+        <f>IF('Input and results'!I9&lt;&gt;"",'Input and results'!I9,"")</f>
         <v/>
       </c>
       <c r="F7">
-        <f>IFERROR(MATCH('Input and results'!H9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>IFERROR(MATCH('Input and results'!I9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>IFERROR(MATCH('Input and results'!J9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>IFERROR(MATCH('Input and results'!K9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>IFERROR(MATCH('Input and results'!L9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>IFERROR(MATCH('Input and results'!M9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>IFERROR(MATCH('Input and results'!N9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>IFERROR(MATCH('Input and results'!O9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>IFERROR(MATCH('Input and results'!P9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>IFERROR(MATCH('Input and results'!Q9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>IFERROR(MATCH('Input and results'!R9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>IFERROR(MATCH('Input and results'!S9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R7" s="39" t="str">
@@ -17282,55 +17649,55 @@
         <v/>
       </c>
       <c r="E8" s="1" t="str">
-        <f>IF('Input and results'!G10&lt;&gt;"",'Input and results'!G10,"")</f>
+        <f>IF('Input and results'!I10&lt;&gt;"",'Input and results'!I10,"")</f>
         <v/>
       </c>
       <c r="F8">
-        <f>IFERROR(MATCH('Input and results'!H10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>IFERROR(MATCH('Input and results'!I10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>IFERROR(MATCH('Input and results'!J10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>IFERROR(MATCH('Input and results'!K10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>IFERROR(MATCH('Input and results'!L10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>IFERROR(MATCH('Input and results'!M10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>IFERROR(MATCH('Input and results'!N10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>IFERROR(MATCH('Input and results'!O10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>IFERROR(MATCH('Input and results'!P10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>IFERROR(MATCH('Input and results'!Q10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>IFERROR(MATCH('Input and results'!R10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>IFERROR(MATCH('Input and results'!S10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R8" s="39" t="str">
@@ -17352,55 +17719,55 @@
         <v/>
       </c>
       <c r="E9" s="1" t="str">
-        <f>IF('Input and results'!G11&lt;&gt;"",'Input and results'!G11,"")</f>
+        <f>IF('Input and results'!I11&lt;&gt;"",'Input and results'!I11,"")</f>
         <v/>
       </c>
       <c r="F9">
-        <f>IFERROR(MATCH('Input and results'!H11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>IFERROR(MATCH('Input and results'!I11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>IFERROR(MATCH('Input and results'!J11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>IFERROR(MATCH('Input and results'!K11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>IFERROR(MATCH('Input and results'!L11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>IFERROR(MATCH('Input and results'!M11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>IFERROR(MATCH('Input and results'!N11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>IFERROR(MATCH('Input and results'!O11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>IFERROR(MATCH('Input and results'!P11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>IFERROR(MATCH('Input and results'!Q11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>IFERROR(MATCH('Input and results'!R11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>IFERROR(MATCH('Input and results'!S11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R9" s="39" t="str">
@@ -17422,55 +17789,55 @@
         <v/>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IF('Input and results'!G12&lt;&gt;"",'Input and results'!G12,"")</f>
+        <f>IF('Input and results'!I12&lt;&gt;"",'Input and results'!I12,"")</f>
         <v/>
       </c>
       <c r="F10">
-        <f>IFERROR(MATCH('Input and results'!H12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>IFERROR(MATCH('Input and results'!I12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>IFERROR(MATCH('Input and results'!J12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>IFERROR(MATCH('Input and results'!K12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>IFERROR(MATCH('Input and results'!L12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>IFERROR(MATCH('Input and results'!M12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>IFERROR(MATCH('Input and results'!N12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>IFERROR(MATCH('Input and results'!O12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>IFERROR(MATCH('Input and results'!P12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>IFERROR(MATCH('Input and results'!Q12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>IFERROR(MATCH('Input and results'!R12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>IFERROR(MATCH('Input and results'!S12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R10" s="39" t="str">
@@ -17492,55 +17859,55 @@
         <v/>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IF('Input and results'!G13&lt;&gt;"",'Input and results'!G13,"")</f>
+        <f>IF('Input and results'!I13&lt;&gt;"",'Input and results'!I13,"")</f>
         <v/>
       </c>
       <c r="F11">
-        <f>IFERROR(MATCH('Input and results'!H13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>IFERROR(MATCH('Input and results'!I13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>IFERROR(MATCH('Input and results'!J13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IFERROR(MATCH('Input and results'!K13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>IFERROR(MATCH('Input and results'!L13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>IFERROR(MATCH('Input and results'!M13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>IFERROR(MATCH('Input and results'!N13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>IFERROR(MATCH('Input and results'!O13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>IFERROR(MATCH('Input and results'!P13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>IFERROR(MATCH('Input and results'!Q13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>IFERROR(MATCH('Input and results'!R13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>IFERROR(MATCH('Input and results'!S13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R11" s="39" t="str">
@@ -17562,55 +17929,55 @@
         <v/>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF('Input and results'!G14&lt;&gt;"",'Input and results'!G14,"")</f>
+        <f>IF('Input and results'!I14&lt;&gt;"",'Input and results'!I14,"")</f>
         <v/>
       </c>
       <c r="F12">
-        <f>IFERROR(MATCH('Input and results'!H14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>IFERROR(MATCH('Input and results'!I14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>IFERROR(MATCH('Input and results'!J14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>IFERROR(MATCH('Input and results'!K14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>IFERROR(MATCH('Input and results'!L14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>IFERROR(MATCH('Input and results'!M14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>IFERROR(MATCH('Input and results'!N14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>IFERROR(MATCH('Input and results'!O14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>IFERROR(MATCH('Input and results'!P14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>IFERROR(MATCH('Input and results'!Q14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>IFERROR(MATCH('Input and results'!R14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>IFERROR(MATCH('Input and results'!S14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R12" s="39" t="str">
@@ -17632,55 +17999,55 @@
         <v/>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF('Input and results'!G15&lt;&gt;"",'Input and results'!G15,"")</f>
+        <f>IF('Input and results'!I15&lt;&gt;"",'Input and results'!I15,"")</f>
         <v/>
       </c>
       <c r="F13">
-        <f>IFERROR(MATCH('Input and results'!H15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>IFERROR(MATCH('Input and results'!I15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>IFERROR(MATCH('Input and results'!J15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>IFERROR(MATCH('Input and results'!K15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>IFERROR(MATCH('Input and results'!L15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>IFERROR(MATCH('Input and results'!M15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>IFERROR(MATCH('Input and results'!N15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>IFERROR(MATCH('Input and results'!O15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>IFERROR(MATCH('Input and results'!P15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>IFERROR(MATCH('Input and results'!Q15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>IFERROR(MATCH('Input and results'!R15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>IFERROR(MATCH('Input and results'!S15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R13" s="39" t="str">
@@ -17702,55 +18069,55 @@
         <v/>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF('Input and results'!G16&lt;&gt;"",'Input and results'!G16,"")</f>
+        <f>IF('Input and results'!I16&lt;&gt;"",'Input and results'!I16,"")</f>
         <v/>
       </c>
       <c r="F14">
-        <f>IFERROR(MATCH('Input and results'!H16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>IFERROR(MATCH('Input and results'!I16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>IFERROR(MATCH('Input and results'!J16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IFERROR(MATCH('Input and results'!K16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>IFERROR(MATCH('Input and results'!L16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>IFERROR(MATCH('Input and results'!M16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>IFERROR(MATCH('Input and results'!N16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>IFERROR(MATCH('Input and results'!O16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>IFERROR(MATCH('Input and results'!P16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>IFERROR(MATCH('Input and results'!Q16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>IFERROR(MATCH('Input and results'!R16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>IFERROR(MATCH('Input and results'!S16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R14" s="39" t="str">
@@ -17772,55 +18139,55 @@
         <v/>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IF('Input and results'!G17&lt;&gt;"",'Input and results'!G17,"")</f>
+        <f>IF('Input and results'!I17&lt;&gt;"",'Input and results'!I17,"")</f>
         <v/>
       </c>
       <c r="F15">
-        <f>IFERROR(MATCH('Input and results'!H17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>IFERROR(MATCH('Input and results'!I17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>IFERROR(MATCH('Input and results'!J17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>IFERROR(MATCH('Input and results'!K17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>IFERROR(MATCH('Input and results'!L17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>IFERROR(MATCH('Input and results'!M17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>IFERROR(MATCH('Input and results'!N17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>IFERROR(MATCH('Input and results'!O17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>IFERROR(MATCH('Input and results'!P17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>IFERROR(MATCH('Input and results'!Q17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>IFERROR(MATCH('Input and results'!R17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>IFERROR(MATCH('Input and results'!S17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R15" s="39" t="str">
@@ -17842,55 +18209,55 @@
         <v/>
       </c>
       <c r="E16" s="1" t="str">
-        <f>IF('Input and results'!G18&lt;&gt;"",'Input and results'!G18,"")</f>
+        <f>IF('Input and results'!I18&lt;&gt;"",'Input and results'!I18,"")</f>
         <v/>
       </c>
       <c r="F16">
-        <f>IFERROR(MATCH('Input and results'!H18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>IFERROR(MATCH('Input and results'!I18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>IFERROR(MATCH('Input and results'!J18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>IFERROR(MATCH('Input and results'!K18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>IFERROR(MATCH('Input and results'!L18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>IFERROR(MATCH('Input and results'!M18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>IFERROR(MATCH('Input and results'!N18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>IFERROR(MATCH('Input and results'!O18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>IFERROR(MATCH('Input and results'!P18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>IFERROR(MATCH('Input and results'!Q18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P16">
-        <f>IFERROR(MATCH('Input and results'!R18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>IFERROR(MATCH('Input and results'!S18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R16" s="39" t="str">
@@ -17912,55 +18279,55 @@
         <v/>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF('Input and results'!G19&lt;&gt;"",'Input and results'!G19,"")</f>
+        <f>IF('Input and results'!I19&lt;&gt;"",'Input and results'!I19,"")</f>
         <v/>
       </c>
       <c r="F17">
-        <f>IFERROR(MATCH('Input and results'!H19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>IFERROR(MATCH('Input and results'!I19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>IFERROR(MATCH('Input and results'!J19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>IFERROR(MATCH('Input and results'!K19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>IFERROR(MATCH('Input and results'!L19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>IFERROR(MATCH('Input and results'!M19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>IFERROR(MATCH('Input and results'!N19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>IFERROR(MATCH('Input and results'!O19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>IFERROR(MATCH('Input and results'!P19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>IFERROR(MATCH('Input and results'!Q19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P17">
-        <f>IFERROR(MATCH('Input and results'!R19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>IFERROR(MATCH('Input and results'!S19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R17" s="39" t="str">
@@ -17982,55 +18349,55 @@
         <v/>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF('Input and results'!G20&lt;&gt;"",'Input and results'!G20,"")</f>
+        <f>IF('Input and results'!I20&lt;&gt;"",'Input and results'!I20,"")</f>
         <v/>
       </c>
       <c r="F18">
-        <f>IFERROR(MATCH('Input and results'!H20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>IFERROR(MATCH('Input and results'!I20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>IFERROR(MATCH('Input and results'!J20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>IFERROR(MATCH('Input and results'!K20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>IFERROR(MATCH('Input and results'!L20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>IFERROR(MATCH('Input and results'!M20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>IFERROR(MATCH('Input and results'!N20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>IFERROR(MATCH('Input and results'!O20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>IFERROR(MATCH('Input and results'!P20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O18">
-        <f>IFERROR(MATCH('Input and results'!Q20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>IFERROR(MATCH('Input and results'!R20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>IFERROR(MATCH('Input and results'!S20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R18" s="39" t="str">
@@ -18126,7 +18493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18145,65 +18512,65 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="D1" s="1"/>
       <c r="F1" s="4" t="str">
-        <f>'Input and results'!H3</f>
+        <f>'Input and results'!J3</f>
         <v>Person 1</v>
       </c>
       <c r="G1" s="4" t="str">
-        <f>'Input and results'!I3</f>
+        <f>'Input and results'!K3</f>
         <v>Person 2</v>
       </c>
       <c r="H1" s="4" t="str">
-        <f>'Input and results'!J3</f>
+        <f>'Input and results'!L3</f>
         <v>Team 1</v>
       </c>
       <c r="I1" s="4" t="str">
-        <f>'Input and results'!K3</f>
-        <v>xxx</v>
+        <f>'Input and results'!M3</f>
+        <v/>
       </c>
       <c r="J1" s="4" t="str">
-        <f>'Input and results'!L3</f>
+        <f>'Input and results'!N3</f>
         <v/>
       </c>
       <c r="K1" s="4" t="str">
-        <f>'Input and results'!M3</f>
+        <f>'Input and results'!O3</f>
         <v/>
       </c>
       <c r="L1" s="4" t="str">
-        <f>'Input and results'!N3</f>
+        <f>'Input and results'!P3</f>
         <v/>
       </c>
       <c r="M1" s="4" t="str">
-        <f>'Input and results'!O3</f>
+        <f>'Input and results'!Q3</f>
         <v/>
       </c>
       <c r="N1" s="4" t="str">
-        <f>'Input and results'!P3</f>
+        <f>'Input and results'!R3</f>
         <v/>
       </c>
       <c r="O1" s="4" t="str">
-        <f>'Input and results'!Q3</f>
+        <f>'Input and results'!S3</f>
         <v/>
       </c>
       <c r="P1" s="4" t="str">
-        <f>'Input and results'!R3</f>
+        <f>'Input and results'!T3</f>
         <v/>
       </c>
       <c r="Q1" s="4" t="str">
-        <f>'Input and results'!S3</f>
+        <f>'Input and results'!U3</f>
         <v/>
       </c>
       <c r="R1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -18220,55 +18587,55 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>IF('Input and results'!G4&lt;&gt;"",'Input and results'!G4,"")</f>
+        <f>IF('Input and results'!I4&lt;&gt;"",'Input and results'!I4,"")</f>
         <v>CSS</v>
       </c>
       <c r="F2">
-        <f>IFERROR(MATCH('Input and results'!H4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>IFERROR(MATCH('Input and results'!I4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>IFERROR(MATCH('Input and results'!J4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>2</v>
       </c>
       <c r="I2">
-        <f>IFERROR(MATCH('Input and results'!K4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>IFERROR(MATCH('Input and results'!L4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>IFERROR(MATCH('Input and results'!M4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>IFERROR(MATCH('Input and results'!N4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>IFERROR(MATCH('Input and results'!O4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>IFERROR(MATCH('Input and results'!P4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>IFERROR(MATCH('Input and results'!Q4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>IFERROR(MATCH('Input and results'!R4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>IFERROR(MATCH('Input and results'!S4,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U4,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R2" s="39">
@@ -18290,55 +18657,55 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>IF('Input and results'!G5&lt;&gt;"",'Input and results'!G5,"")</f>
+        <f>IF('Input and results'!I5&lt;&gt;"",'Input and results'!I5,"")</f>
         <v>Javascript</v>
       </c>
       <c r="F3">
-        <f>IFERROR(MATCH('Input and results'!H5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>4</v>
       </c>
       <c r="G3">
-        <f>IFERROR(MATCH('Input and results'!I5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>3</v>
       </c>
       <c r="H3">
-        <f>IFERROR(MATCH('Input and results'!J5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>IFERROR(MATCH('Input and results'!K5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>IFERROR(MATCH('Input and results'!L5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>IFERROR(MATCH('Input and results'!M5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>IFERROR(MATCH('Input and results'!N5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>IFERROR(MATCH('Input and results'!O5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>IFERROR(MATCH('Input and results'!P5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>IFERROR(MATCH('Input and results'!Q5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>IFERROR(MATCH('Input and results'!R5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>IFERROR(MATCH('Input and results'!S5,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U5,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R3" s="39">
@@ -18360,55 +18727,55 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>IF('Input and results'!G6&lt;&gt;"",'Input and results'!G6,"")</f>
+        <f>IF('Input and results'!I6&lt;&gt;"",'Input and results'!I6,"")</f>
         <v>DB Backup/Restore</v>
       </c>
       <c r="F4">
-        <f>IFERROR(MATCH('Input and results'!H6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f>IFERROR(MATCH('Input and results'!I6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>2</v>
       </c>
       <c r="H4">
-        <f>IFERROR(MATCH('Input and results'!J6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>3</v>
       </c>
       <c r="I4">
-        <f>IFERROR(MATCH('Input and results'!K6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>IFERROR(MATCH('Input and results'!L6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>IFERROR(MATCH('Input and results'!M6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>IFERROR(MATCH('Input and results'!N6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>IFERROR(MATCH('Input and results'!O6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>IFERROR(MATCH('Input and results'!P6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>IFERROR(MATCH('Input and results'!Q6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>IFERROR(MATCH('Input and results'!R6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>IFERROR(MATCH('Input and results'!S6,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U6,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R4" s="39">
@@ -18430,55 +18797,55 @@
         <v/>
       </c>
       <c r="E5" s="1" t="str">
-        <f>IF('Input and results'!G7&lt;&gt;"",'Input and results'!G7,"")</f>
+        <f>IF('Input and results'!I7&lt;&gt;"",'Input and results'!I7,"")</f>
         <v/>
       </c>
       <c r="F5">
-        <f>IFERROR(MATCH('Input and results'!H7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>IFERROR(MATCH('Input and results'!I7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>IFERROR(MATCH('Input and results'!J7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>IFERROR(MATCH('Input and results'!K7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>IFERROR(MATCH('Input and results'!L7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>IFERROR(MATCH('Input and results'!M7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>IFERROR(MATCH('Input and results'!N7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>IFERROR(MATCH('Input and results'!O7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>IFERROR(MATCH('Input and results'!P7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>IFERROR(MATCH('Input and results'!Q7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>IFERROR(MATCH('Input and results'!R7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>IFERROR(MATCH('Input and results'!S7,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U7,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R5" s="39" t="str">
@@ -18500,55 +18867,55 @@
         <v/>
       </c>
       <c r="E6" s="1" t="str">
-        <f>IF('Input and results'!G8&lt;&gt;"",'Input and results'!G8,"")</f>
+        <f>IF('Input and results'!I8&lt;&gt;"",'Input and results'!I8,"")</f>
         <v/>
       </c>
       <c r="F6">
-        <f>IFERROR(MATCH('Input and results'!H8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>IFERROR(MATCH('Input and results'!I8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>IFERROR(MATCH('Input and results'!J8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>IFERROR(MATCH('Input and results'!K8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>IFERROR(MATCH('Input and results'!L8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>IFERROR(MATCH('Input and results'!M8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>IFERROR(MATCH('Input and results'!N8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>IFERROR(MATCH('Input and results'!O8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>IFERROR(MATCH('Input and results'!P8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>IFERROR(MATCH('Input and results'!Q8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>IFERROR(MATCH('Input and results'!R8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>IFERROR(MATCH('Input and results'!S8,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U8,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R6" s="39" t="str">
@@ -18570,55 +18937,55 @@
         <v/>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IF('Input and results'!G9&lt;&gt;"",'Input and results'!G9,"")</f>
+        <f>IF('Input and results'!I9&lt;&gt;"",'Input and results'!I9,"")</f>
         <v/>
       </c>
       <c r="F7">
-        <f>IFERROR(MATCH('Input and results'!H9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>IFERROR(MATCH('Input and results'!I9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>IFERROR(MATCH('Input and results'!J9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>IFERROR(MATCH('Input and results'!K9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>IFERROR(MATCH('Input and results'!L9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>IFERROR(MATCH('Input and results'!M9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>IFERROR(MATCH('Input and results'!N9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>IFERROR(MATCH('Input and results'!O9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>IFERROR(MATCH('Input and results'!P9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>IFERROR(MATCH('Input and results'!Q9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>IFERROR(MATCH('Input and results'!R9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>IFERROR(MATCH('Input and results'!S9,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U9,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R7" s="39" t="str">
@@ -18640,55 +19007,55 @@
         <v/>
       </c>
       <c r="E8" s="1" t="str">
-        <f>IF('Input and results'!G10&lt;&gt;"",'Input and results'!G10,"")</f>
+        <f>IF('Input and results'!I10&lt;&gt;"",'Input and results'!I10,"")</f>
         <v/>
       </c>
       <c r="F8">
-        <f>IFERROR(MATCH('Input and results'!H10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>IFERROR(MATCH('Input and results'!I10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>IFERROR(MATCH('Input and results'!J10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>IFERROR(MATCH('Input and results'!K10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>IFERROR(MATCH('Input and results'!L10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>IFERROR(MATCH('Input and results'!M10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>IFERROR(MATCH('Input and results'!N10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>IFERROR(MATCH('Input and results'!O10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>IFERROR(MATCH('Input and results'!P10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>IFERROR(MATCH('Input and results'!Q10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>IFERROR(MATCH('Input and results'!R10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>IFERROR(MATCH('Input and results'!S10,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U10,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R8" s="39" t="str">
@@ -18710,55 +19077,55 @@
         <v/>
       </c>
       <c r="E9" s="1" t="str">
-        <f>IF('Input and results'!G11&lt;&gt;"",'Input and results'!G11,"")</f>
+        <f>IF('Input and results'!I11&lt;&gt;"",'Input and results'!I11,"")</f>
         <v/>
       </c>
       <c r="F9">
-        <f>IFERROR(MATCH('Input and results'!H11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>IFERROR(MATCH('Input and results'!I11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>IFERROR(MATCH('Input and results'!J11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>IFERROR(MATCH('Input and results'!K11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>IFERROR(MATCH('Input and results'!L11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>IFERROR(MATCH('Input and results'!M11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>IFERROR(MATCH('Input and results'!N11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>IFERROR(MATCH('Input and results'!O11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>IFERROR(MATCH('Input and results'!P11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>IFERROR(MATCH('Input and results'!Q11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>IFERROR(MATCH('Input and results'!R11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>IFERROR(MATCH('Input and results'!S11,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U11,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R9" s="39" t="str">
@@ -18780,55 +19147,55 @@
         <v/>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IF('Input and results'!G12&lt;&gt;"",'Input and results'!G12,"")</f>
+        <f>IF('Input and results'!I12&lt;&gt;"",'Input and results'!I12,"")</f>
         <v/>
       </c>
       <c r="F10">
-        <f>IFERROR(MATCH('Input and results'!H12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>IFERROR(MATCH('Input and results'!I12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>IFERROR(MATCH('Input and results'!J12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>IFERROR(MATCH('Input and results'!K12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>IFERROR(MATCH('Input and results'!L12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>IFERROR(MATCH('Input and results'!M12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>IFERROR(MATCH('Input and results'!N12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>IFERROR(MATCH('Input and results'!O12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>IFERROR(MATCH('Input and results'!P12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>IFERROR(MATCH('Input and results'!Q12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>IFERROR(MATCH('Input and results'!R12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>IFERROR(MATCH('Input and results'!S12,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U12,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R10" s="39" t="str">
@@ -18850,55 +19217,55 @@
         <v/>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IF('Input and results'!G13&lt;&gt;"",'Input and results'!G13,"")</f>
+        <f>IF('Input and results'!I13&lt;&gt;"",'Input and results'!I13,"")</f>
         <v/>
       </c>
       <c r="F11">
-        <f>IFERROR(MATCH('Input and results'!H13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>IFERROR(MATCH('Input and results'!I13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>IFERROR(MATCH('Input and results'!J13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IFERROR(MATCH('Input and results'!K13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>IFERROR(MATCH('Input and results'!L13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>IFERROR(MATCH('Input and results'!M13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>IFERROR(MATCH('Input and results'!N13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>IFERROR(MATCH('Input and results'!O13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>IFERROR(MATCH('Input and results'!P13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>IFERROR(MATCH('Input and results'!Q13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>IFERROR(MATCH('Input and results'!R13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>IFERROR(MATCH('Input and results'!S13,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U13,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R11" s="39" t="str">
@@ -18920,55 +19287,55 @@
         <v/>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF('Input and results'!G14&lt;&gt;"",'Input and results'!G14,"")</f>
+        <f>IF('Input and results'!I14&lt;&gt;"",'Input and results'!I14,"")</f>
         <v/>
       </c>
       <c r="F12">
-        <f>IFERROR(MATCH('Input and results'!H14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>IFERROR(MATCH('Input and results'!I14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>IFERROR(MATCH('Input and results'!J14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>IFERROR(MATCH('Input and results'!K14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>IFERROR(MATCH('Input and results'!L14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>IFERROR(MATCH('Input and results'!M14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>IFERROR(MATCH('Input and results'!N14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>IFERROR(MATCH('Input and results'!O14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>IFERROR(MATCH('Input and results'!P14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>IFERROR(MATCH('Input and results'!Q14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>IFERROR(MATCH('Input and results'!R14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>IFERROR(MATCH('Input and results'!S14,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U14,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R12" s="39" t="str">
@@ -18990,55 +19357,55 @@
         <v/>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF('Input and results'!G15&lt;&gt;"",'Input and results'!G15,"")</f>
+        <f>IF('Input and results'!I15&lt;&gt;"",'Input and results'!I15,"")</f>
         <v/>
       </c>
       <c r="F13">
-        <f>IFERROR(MATCH('Input and results'!H15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>IFERROR(MATCH('Input and results'!I15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>IFERROR(MATCH('Input and results'!J15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>IFERROR(MATCH('Input and results'!K15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>IFERROR(MATCH('Input and results'!L15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>IFERROR(MATCH('Input and results'!M15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>IFERROR(MATCH('Input and results'!N15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>IFERROR(MATCH('Input and results'!O15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>IFERROR(MATCH('Input and results'!P15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>IFERROR(MATCH('Input and results'!Q15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>IFERROR(MATCH('Input and results'!R15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>IFERROR(MATCH('Input and results'!S15,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U15,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R13" s="39" t="str">
@@ -19060,55 +19427,55 @@
         <v/>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF('Input and results'!G16&lt;&gt;"",'Input and results'!G16,"")</f>
+        <f>IF('Input and results'!I16&lt;&gt;"",'Input and results'!I16,"")</f>
         <v/>
       </c>
       <c r="F14">
-        <f>IFERROR(MATCH('Input and results'!H16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>IFERROR(MATCH('Input and results'!I16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>IFERROR(MATCH('Input and results'!J16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IFERROR(MATCH('Input and results'!K16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>IFERROR(MATCH('Input and results'!L16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>IFERROR(MATCH('Input and results'!M16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>IFERROR(MATCH('Input and results'!N16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>IFERROR(MATCH('Input and results'!O16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>IFERROR(MATCH('Input and results'!P16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>IFERROR(MATCH('Input and results'!Q16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>IFERROR(MATCH('Input and results'!R16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>IFERROR(MATCH('Input and results'!S16,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U16,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R14" s="39" t="str">
@@ -19130,55 +19497,55 @@
         <v/>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IF('Input and results'!G17&lt;&gt;"",'Input and results'!G17,"")</f>
+        <f>IF('Input and results'!I17&lt;&gt;"",'Input and results'!I17,"")</f>
         <v/>
       </c>
       <c r="F15">
-        <f>IFERROR(MATCH('Input and results'!H17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>IFERROR(MATCH('Input and results'!I17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>IFERROR(MATCH('Input and results'!J17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>IFERROR(MATCH('Input and results'!K17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>IFERROR(MATCH('Input and results'!L17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>IFERROR(MATCH('Input and results'!M17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>IFERROR(MATCH('Input and results'!N17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>IFERROR(MATCH('Input and results'!O17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>IFERROR(MATCH('Input and results'!P17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>IFERROR(MATCH('Input and results'!Q17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>IFERROR(MATCH('Input and results'!R17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>IFERROR(MATCH('Input and results'!S17,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U17,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R15" s="39" t="str">
@@ -19200,55 +19567,55 @@
         <v/>
       </c>
       <c r="E16" s="1" t="str">
-        <f>IF('Input and results'!G18&lt;&gt;"",'Input and results'!G18,"")</f>
+        <f>IF('Input and results'!I18&lt;&gt;"",'Input and results'!I18,"")</f>
         <v/>
       </c>
       <c r="F16">
-        <f>IFERROR(MATCH('Input and results'!H18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>IFERROR(MATCH('Input and results'!I18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>IFERROR(MATCH('Input and results'!J18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>IFERROR(MATCH('Input and results'!K18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>IFERROR(MATCH('Input and results'!L18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>IFERROR(MATCH('Input and results'!M18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>IFERROR(MATCH('Input and results'!N18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>IFERROR(MATCH('Input and results'!O18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>IFERROR(MATCH('Input and results'!P18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>IFERROR(MATCH('Input and results'!Q18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P16">
-        <f>IFERROR(MATCH('Input and results'!R18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>IFERROR(MATCH('Input and results'!S18,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U18,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R16" s="39" t="str">
@@ -19270,55 +19637,55 @@
         <v/>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF('Input and results'!G19&lt;&gt;"",'Input and results'!G19,"")</f>
+        <f>IF('Input and results'!I19&lt;&gt;"",'Input and results'!I19,"")</f>
         <v/>
       </c>
       <c r="F17">
-        <f>IFERROR(MATCH('Input and results'!H19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>IFERROR(MATCH('Input and results'!I19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>IFERROR(MATCH('Input and results'!J19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>IFERROR(MATCH('Input and results'!K19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>IFERROR(MATCH('Input and results'!L19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>IFERROR(MATCH('Input and results'!M19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>IFERROR(MATCH('Input and results'!N19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>IFERROR(MATCH('Input and results'!O19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>IFERROR(MATCH('Input and results'!P19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>IFERROR(MATCH('Input and results'!Q19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P17">
-        <f>IFERROR(MATCH('Input and results'!R19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>IFERROR(MATCH('Input and results'!S19,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U19,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R17" s="39" t="str">
@@ -19340,55 +19707,55 @@
         <v/>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF('Input and results'!G20&lt;&gt;"",'Input and results'!G20,"")</f>
+        <f>IF('Input and results'!I20&lt;&gt;"",'Input and results'!I20,"")</f>
         <v/>
       </c>
       <c r="F18">
-        <f>IFERROR(MATCH('Input and results'!H20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!J20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>IFERROR(MATCH('Input and results'!I20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!K20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>IFERROR(MATCH('Input and results'!J20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!L20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>IFERROR(MATCH('Input and results'!K20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!M20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>IFERROR(MATCH('Input and results'!L20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!N20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>IFERROR(MATCH('Input and results'!M20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!O20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>IFERROR(MATCH('Input and results'!N20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!P20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>IFERROR(MATCH('Input and results'!O20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!Q20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>IFERROR(MATCH('Input and results'!P20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!R20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="O18">
-        <f>IFERROR(MATCH('Input and results'!Q20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!S20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>IFERROR(MATCH('Input and results'!R20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!T20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>IFERROR(MATCH('Input and results'!S20,Settings!$G$6:$G$10,0)-1, 0)</f>
+        <f>IFERROR(MATCH('Input and results'!U20,Settings!$F$6:$F$10,0)-1, 0)</f>
         <v>0</v>
       </c>
       <c r="R18" s="39" t="str">
